--- a/2022/LION/GKLS.xlsx
+++ b/2022/LION/GKLS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E17993-F1A4-4369-909F-5655BEAD736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF24244-567C-4B07-8132-2EC5CC4E8774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81E0D302-7E81-40ED-99EB-5ADBB7ADC8AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81E0D302-7E81-40ED-99EB-5ADBB7ADC8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>HVP</t>
   </si>
@@ -149,9 +149,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -352,20 +351,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$E$5:$E$8</c:f>
+              <c:f>Лист2!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4700</c:v>
                 </c:pt>
               </c:numCache>
@@ -373,20 +375,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$F$5:$F$8</c:f>
+              <c:f>Лист2!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4.6982277131181736</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.8293494685541773</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.9006925226261036</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.0598929443044129</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.1598077624125667</c:v>
                 </c:pt>
               </c:numCache>
@@ -442,20 +447,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$E$5:$E$8</c:f>
+              <c:f>Лист2!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4700</c:v>
                 </c:pt>
               </c:numCache>
@@ -463,20 +471,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$G$5:$G$8</c:f>
+              <c:f>Лист2!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4.7153311712571586</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.8473247666162749</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.9224118560583259</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.0739967330487143</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.1754142434397599</c:v>
                 </c:pt>
               </c:numCache>
@@ -532,20 +543,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$E$5:$E$8</c:f>
+              <c:f>Лист2!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4700</c:v>
                 </c:pt>
               </c:numCache>
@@ -553,20 +567,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$H$5:$H$8</c:f>
+              <c:f>Лист2!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4.706335548631154</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.8149774847872235</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.8964816706570922</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.9505618221329293</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.9696862632611865</c:v>
                 </c:pt>
               </c:numCache>
@@ -620,20 +637,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$E$5:$E$8</c:f>
+              <c:f>Лист2!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4700</c:v>
                 </c:pt>
               </c:numCache>
@@ -641,20 +661,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$I$5:$I$8</c:f>
+              <c:f>Лист2!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4.7232976929350974</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.8781144877630567</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.9346335586027621</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.9440655995902612</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.9536360817113696</c:v>
                 </c:pt>
               </c:numCache>
@@ -796,8 +819,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>998.43663366336636</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>998.43663366336636</c:v>
+                  <c:v>1533.8325247524751</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2528.11</c:v>
@@ -814,8 +840,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.5511808613861389</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5511808613861389</c:v>
+                  <c:v>4.770909267326731</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.005413579999999</c:v>
@@ -2016,15 +2045,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A599387F-4E68-410B-8DCC-ABECE138FA61}">
-  <dimension ref="A1:BD106"/>
+  <dimension ref="A1:AP106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK27" workbookViewId="0">
-      <selection activeCell="AS36" sqref="AS36"/>
+    <sheetView topLeftCell="AA94" workbookViewId="0">
+      <selection activeCell="AR105" sqref="AR105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2052,12 +2081,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="J3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -2100,6 +2129,12 @@
       <c r="O4" t="s">
         <v>8</v>
       </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
       <c r="S4">
         <v>4700</v>
       </c>
@@ -2112,8 +2147,11 @@
       <c r="AH4">
         <v>1400</v>
       </c>
+      <c r="AM4">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2159,6 +2197,12 @@
       <c r="O5">
         <v>5.6</v>
       </c>
+      <c r="P5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>5.6</v>
+      </c>
       <c r="S5" t="s">
         <v>1</v>
       </c>
@@ -2207,56 +2251,20 @@
       <c r="AK5" t="s">
         <v>4</v>
       </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
       <c r="AN5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>6.6831506277040003</v>
-      </c>
-      <c r="AP5">
-        <v>1195</v>
-      </c>
-      <c r="AQ5">
-        <v>1.379875</v>
-      </c>
-      <c r="AR5">
-        <v>6.1286129999999996</v>
-      </c>
-      <c r="AS5">
-        <v>3211</v>
-      </c>
-      <c r="AT5">
-        <v>0.38833299999999998</v>
-      </c>
-      <c r="AU5">
-        <v>6.9517160000000002</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>6.5625503922329003</v>
-      </c>
-      <c r="AY5" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5">
-        <v>6.6392906596681502</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="AO5" t="s">
         <v>3</v>
       </c>
-      <c r="BB5">
-        <v>6.5490348330571697</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="AP5" t="s">
         <v>4</v>
       </c>
-      <c r="BD5">
-        <v>6.2650837251172096</v>
-      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.8997201589069999</v>
       </c>
@@ -2266,6 +2274,12 @@
       <c r="C6">
         <v>6.4030230000000001</v>
       </c>
+      <c r="D6">
+        <v>1195</v>
+      </c>
+      <c r="E6">
+        <v>6.1286129999999996</v>
+      </c>
       <c r="F6">
         <v>2184</v>
       </c>
@@ -2296,6 +2310,12 @@
       <c r="O6">
         <v>6.9542970000000004</v>
       </c>
+      <c r="P6">
+        <v>3211</v>
+      </c>
+      <c r="Q6">
+        <v>6.9517160000000002</v>
+      </c>
       <c r="S6">
         <v>6.9587603963449203</v>
       </c>
@@ -2344,56 +2364,20 @@
       <c r="AK6">
         <v>6.7472415101999497</v>
       </c>
-      <c r="AN6" t="s">
-        <v>0</v>
+      <c r="AM6">
+        <v>6.5625503922329003</v>
+      </c>
+      <c r="AN6">
+        <v>6.6392906596681502</v>
       </c>
       <c r="AO6">
-        <v>6.3312811047570001</v>
+        <v>6.5490348330571697</v>
       </c>
       <c r="AP6">
-        <v>1908</v>
-      </c>
-      <c r="AQ6">
-        <v>0.70338599999999996</v>
-      </c>
-      <c r="AR6">
-        <v>6.0852740000000001</v>
-      </c>
-      <c r="AS6">
-        <v>3995</v>
-      </c>
-      <c r="AT6">
-        <v>0.70654899999999998</v>
-      </c>
-      <c r="AU6">
-        <v>6.2949039999999998</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>5.9271524089652701</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ6">
-        <v>6.0292154447104798</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB6">
-        <v>5.9167033826217397</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD6">
-        <v>5.6276980491496396</v>
+        <v>6.2650837251172096</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.6063385182719996</v>
       </c>
@@ -2403,6 +2387,12 @@
       <c r="C7">
         <v>6.0601409999999998</v>
       </c>
+      <c r="D7">
+        <v>1908</v>
+      </c>
+      <c r="E7">
+        <v>6.0852740000000001</v>
+      </c>
       <c r="F7">
         <v>3174</v>
       </c>
@@ -2433,6 +2423,12 @@
       <c r="O7">
         <v>6.498977</v>
       </c>
+      <c r="P7">
+        <v>3995</v>
+      </c>
+      <c r="Q7">
+        <v>6.2949039999999998</v>
+      </c>
       <c r="S7">
         <v>6.4882824961769696</v>
       </c>
@@ -2481,56 +2477,20 @@
       <c r="AK7">
         <v>6.1842213958474002</v>
       </c>
-      <c r="AN7" t="s">
-        <v>0</v>
+      <c r="AM7">
+        <v>5.9271524089652701</v>
+      </c>
+      <c r="AN7">
+        <v>6.0292154447104798</v>
       </c>
       <c r="AO7">
-        <v>3.7948293866959899</v>
+        <v>5.9167033826217397</v>
       </c>
       <c r="AP7">
-        <v>1818</v>
-      </c>
-      <c r="AQ7">
-        <v>0.154056</v>
-      </c>
-      <c r="AR7">
-        <v>4.2643310000000003</v>
-      </c>
-      <c r="AS7">
-        <v>2330</v>
-      </c>
-      <c r="AT7">
-        <v>0.29898999999999998</v>
-      </c>
-      <c r="AU7">
-        <v>3.874387</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>3.7894479973126902</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ7">
-        <v>3.79430325867092</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB7">
-        <v>3.7710156940102499</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD7">
-        <v>3.76173046261176</v>
+        <v>5.6276980491496396</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.9308795642849899</v>
       </c>
@@ -2540,6 +2500,12 @@
       <c r="C8">
         <v>3.7277740000000001</v>
       </c>
+      <c r="D8">
+        <v>1818</v>
+      </c>
+      <c r="E8">
+        <v>4.2643310000000003</v>
+      </c>
       <c r="F8">
         <v>2566</v>
       </c>
@@ -2570,6 +2536,12 @@
       <c r="O8">
         <v>4.45906</v>
       </c>
+      <c r="P8">
+        <v>2330</v>
+      </c>
+      <c r="Q8">
+        <v>3.874387</v>
+      </c>
       <c r="S8">
         <v>3.8884962501299598</v>
       </c>
@@ -2618,56 +2590,20 @@
       <c r="AK8">
         <v>3.76941155213339</v>
       </c>
-      <c r="AN8" t="s">
-        <v>0</v>
+      <c r="AM8">
+        <v>3.7894479973126902</v>
+      </c>
+      <c r="AN8">
+        <v>3.79430325867092</v>
       </c>
       <c r="AO8">
-        <v>1.92776538469699</v>
+        <v>3.7710156940102499</v>
       </c>
       <c r="AP8">
-        <v>1633</v>
-      </c>
-      <c r="AQ8">
-        <v>0.74684600000000001</v>
-      </c>
-      <c r="AR8">
-        <v>1.9511559999999999</v>
-      </c>
-      <c r="AS8">
-        <v>2407</v>
-      </c>
-      <c r="AT8">
-        <v>0.43476500000000001</v>
-      </c>
-      <c r="AU8">
-        <v>2.1926369999999999</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>1.73273987444027</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ8">
-        <v>1.71139875369686</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB8">
-        <v>1.77909676892716</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD8">
-        <v>1.7740133383746901</v>
+        <v>3.76173046261176</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.0239089751889998</v>
       </c>
@@ -2677,6 +2613,12 @@
       <c r="C9">
         <v>1.890736</v>
       </c>
+      <c r="D9">
+        <v>1633</v>
+      </c>
+      <c r="E9">
+        <v>1.9511559999999999</v>
+      </c>
       <c r="F9">
         <v>2769</v>
       </c>
@@ -2707,6 +2649,12 @@
       <c r="O9">
         <v>2.0955210000000002</v>
       </c>
+      <c r="P9">
+        <v>2407</v>
+      </c>
+      <c r="Q9">
+        <v>2.1926369999999999</v>
+      </c>
       <c r="S9">
         <v>2.01414351580335</v>
       </c>
@@ -2755,56 +2703,20 @@
       <c r="AK9">
         <v>1.83193698757479</v>
       </c>
-      <c r="AN9" t="s">
-        <v>0</v>
+      <c r="AM9">
+        <v>1.73273987444027</v>
+      </c>
+      <c r="AN9">
+        <v>1.71139875369686</v>
       </c>
       <c r="AO9">
-        <v>5.7386741103099999</v>
+        <v>1.77909676892716</v>
       </c>
       <c r="AP9">
-        <v>1606</v>
-      </c>
-      <c r="AQ9">
-        <v>0.43915999999999999</v>
-      </c>
-      <c r="AR9">
-        <v>5.6702159999999999</v>
-      </c>
-      <c r="AS9">
-        <v>3637</v>
-      </c>
-      <c r="AT9">
-        <v>0.35320400000000002</v>
-      </c>
-      <c r="AU9">
-        <v>6.296824</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>6.7982185030023201</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ9">
-        <v>6.86882826792346</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB9">
-        <v>6.5889940050904299</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD9">
-        <v>6.2756076650404697</v>
+        <v>1.7740133383746901</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6.9214461470349997</v>
       </c>
@@ -2814,6 +2726,12 @@
       <c r="C10">
         <v>4.943867</v>
       </c>
+      <c r="D10">
+        <v>1606</v>
+      </c>
+      <c r="E10">
+        <v>5.6702159999999999</v>
+      </c>
       <c r="F10">
         <v>2720</v>
       </c>
@@ -2844,6 +2762,12 @@
       <c r="O10">
         <v>6.4716019999999999</v>
       </c>
+      <c r="P10">
+        <v>3637</v>
+      </c>
+      <c r="Q10">
+        <v>6.296824</v>
+      </c>
       <c r="S10">
         <v>7.1080186102965097</v>
       </c>
@@ -2892,56 +2816,20 @@
       <c r="AK10">
         <v>6.9043817967015899</v>
       </c>
-      <c r="AN10" t="s">
-        <v>0</v>
+      <c r="AM10">
+        <v>6.7982185030023201</v>
+      </c>
+      <c r="AN10">
+        <v>6.86882826792346</v>
       </c>
       <c r="AO10">
-        <v>5.2196112364480003</v>
+        <v>6.5889940050904299</v>
       </c>
       <c r="AP10">
-        <v>1777</v>
-      </c>
-      <c r="AQ10">
-        <v>0.48611900000000002</v>
-      </c>
-      <c r="AR10">
-        <v>4.5483269999999996</v>
-      </c>
-      <c r="AS10">
-        <v>4786</v>
-      </c>
-      <c r="AT10">
-        <v>0.33967000000000003</v>
-      </c>
-      <c r="AU10">
-        <v>5.7947420000000003</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>5.5206818635115198</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ10">
-        <v>5.4565744829479597</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB10">
-        <v>5.5698598279881404</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD10">
-        <v>5.3329590713074504</v>
+        <v>6.2756076650404697</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.8367755741770004</v>
       </c>
@@ -2951,6 +2839,12 @@
       <c r="C11">
         <v>4.5048919999999999</v>
       </c>
+      <c r="D11">
+        <v>1777</v>
+      </c>
+      <c r="E11">
+        <v>4.5483269999999996</v>
+      </c>
       <c r="F11">
         <v>2658</v>
       </c>
@@ -2981,6 +2875,12 @@
       <c r="O11">
         <v>5.759137</v>
       </c>
+      <c r="P11">
+        <v>4786</v>
+      </c>
+      <c r="Q11">
+        <v>5.7947420000000003</v>
+      </c>
       <c r="S11">
         <v>5.90832662882974</v>
       </c>
@@ -3029,56 +2929,20 @@
       <c r="AK11">
         <v>5.5925850691299699</v>
       </c>
-      <c r="AN11" t="s">
-        <v>0</v>
+      <c r="AM11">
+        <v>5.5206818635115198</v>
+      </c>
+      <c r="AN11">
+        <v>5.4565744829479597</v>
       </c>
       <c r="AO11">
-        <v>5.4791935415659996</v>
+        <v>5.5698598279881404</v>
       </c>
       <c r="AP11">
-        <v>1783</v>
-      </c>
-      <c r="AQ11">
-        <v>0.55780200000000002</v>
-      </c>
-      <c r="AR11">
-        <v>5.3421719999999997</v>
-      </c>
-      <c r="AS11">
-        <v>4854</v>
-      </c>
-      <c r="AT11">
-        <v>0.57678499999999999</v>
-      </c>
-      <c r="AU11">
-        <v>5.6973279999999997</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>5.7219509150415702</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ11">
-        <v>5.6021909010658399</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB11">
-        <v>5.186185744546</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD11">
-        <v>5.3293455227968503</v>
+        <v>5.3329590713074504</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6.0928380518039997</v>
       </c>
@@ -3088,6 +2952,12 @@
       <c r="C12">
         <v>4.6265590000000003</v>
       </c>
+      <c r="D12">
+        <v>1783</v>
+      </c>
+      <c r="E12">
+        <v>5.3421719999999997</v>
+      </c>
       <c r="F12">
         <v>3285</v>
       </c>
@@ -3118,6 +2988,12 @@
       <c r="O12">
         <v>5.7271219999999996</v>
       </c>
+      <c r="P12">
+        <v>4854</v>
+      </c>
+      <c r="Q12">
+        <v>5.6973279999999997</v>
+      </c>
       <c r="S12">
         <v>6.2185608794404601</v>
       </c>
@@ -3166,56 +3042,20 @@
       <c r="AK12">
         <v>5.7685734972504301</v>
       </c>
-      <c r="AN12" t="s">
-        <v>0</v>
+      <c r="AM12">
+        <v>5.7219509150415702</v>
+      </c>
+      <c r="AN12">
+        <v>5.6021909010658399</v>
       </c>
       <c r="AO12">
-        <v>4.9378606748199996</v>
+        <v>5.186185744546</v>
       </c>
       <c r="AP12">
-        <v>1886</v>
-      </c>
-      <c r="AQ12">
-        <v>0.23707300000000001</v>
-      </c>
-      <c r="AR12">
-        <v>4.6058510000000004</v>
-      </c>
-      <c r="AS12">
-        <v>3720</v>
-      </c>
-      <c r="AT12">
-        <v>0.54343900000000001</v>
-      </c>
-      <c r="AU12">
-        <v>5.3529780000000002</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>4.6332921057027798</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ12">
-        <v>4.6819727590413196</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB12">
-        <v>4.5361854359359199</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD12">
-        <v>4.2700334378039599</v>
+        <v>5.3293455227968503</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5.3427191153009996</v>
       </c>
@@ -3225,6 +3065,12 @@
       <c r="C13">
         <v>4.2593610000000002</v>
       </c>
+      <c r="D13">
+        <v>1886</v>
+      </c>
+      <c r="E13">
+        <v>4.6058510000000004</v>
+      </c>
       <c r="F13">
         <v>2994</v>
       </c>
@@ -3255,6 +3101,12 @@
       <c r="O13">
         <v>5.267944</v>
       </c>
+      <c r="P13">
+        <v>3720</v>
+      </c>
+      <c r="Q13">
+        <v>5.3529780000000002</v>
+      </c>
       <c r="S13">
         <v>5.2898075770271999</v>
       </c>
@@ -3303,56 +3155,20 @@
       <c r="AK13">
         <v>4.5033358129385102</v>
       </c>
-      <c r="AN13" t="s">
-        <v>0</v>
+      <c r="AM13">
+        <v>4.6332921057027798</v>
+      </c>
+      <c r="AN13">
+        <v>4.6819727590413196</v>
       </c>
       <c r="AO13">
-        <v>4.0483506168479897</v>
+        <v>4.5361854359359199</v>
       </c>
       <c r="AP13">
-        <v>1741</v>
-      </c>
-      <c r="AQ13">
-        <v>0.68621900000000002</v>
-      </c>
-      <c r="AR13">
-        <v>4.0370609999999996</v>
-      </c>
-      <c r="AS13">
-        <v>3794</v>
-      </c>
-      <c r="AT13">
-        <v>0.21079300000000001</v>
-      </c>
-      <c r="AU13">
-        <v>4.5817649999999999</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX13">
-        <v>4.2546831123329696</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ13">
-        <v>4.1611475726726397</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB13">
-        <v>4.1689159228335502</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD13">
-        <v>4.0618115224903599</v>
+        <v>4.2700334378039599</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.3442314208520001</v>
       </c>
@@ -3362,6 +3178,12 @@
       <c r="C14">
         <v>3.527012</v>
       </c>
+      <c r="D14">
+        <v>1741</v>
+      </c>
+      <c r="E14">
+        <v>4.0370609999999996</v>
+      </c>
       <c r="F14">
         <v>2777</v>
       </c>
@@ -3392,6 +3214,12 @@
       <c r="O14">
         <v>4.8054180000000004</v>
       </c>
+      <c r="P14">
+        <v>3794</v>
+      </c>
+      <c r="Q14">
+        <v>4.5817649999999999</v>
+      </c>
       <c r="S14">
         <v>4.4951954920541404</v>
       </c>
@@ -3440,56 +3268,20 @@
       <c r="AK14">
         <v>4.3794744789994802</v>
       </c>
-      <c r="AN14" t="s">
-        <v>0</v>
+      <c r="AM14">
+        <v>4.2546831123329696</v>
+      </c>
+      <c r="AN14">
+        <v>4.1611475726726397</v>
       </c>
       <c r="AO14">
-        <v>2.747522111686</v>
+        <v>4.1689159228335502</v>
       </c>
       <c r="AP14">
-        <v>1758</v>
-      </c>
-      <c r="AQ14">
-        <v>0.29553299999999999</v>
-      </c>
-      <c r="AR14">
-        <v>2.6396130000000002</v>
-      </c>
-      <c r="AS14">
-        <v>3997</v>
-      </c>
-      <c r="AT14">
-        <v>0.332924</v>
-      </c>
-      <c r="AU14">
-        <v>2.8943189999999999</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX14">
-        <v>2.3357115445486101</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ14">
-        <v>2.4131997499776099</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB14">
-        <v>2.4433015343911801</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD14">
-        <v>2.4191172795587099</v>
+        <v>4.0618115224903599</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.9443403562339898</v>
       </c>
@@ -3499,6 +3291,12 @@
       <c r="C15">
         <v>2.562513</v>
       </c>
+      <c r="D15">
+        <v>1758</v>
+      </c>
+      <c r="E15">
+        <v>2.6396130000000002</v>
+      </c>
       <c r="F15">
         <v>2922</v>
       </c>
@@ -3529,6 +3327,12 @@
       <c r="O15">
         <v>2.9022999999999999</v>
       </c>
+      <c r="P15">
+        <v>3997</v>
+      </c>
+      <c r="Q15">
+        <v>2.8943189999999999</v>
+      </c>
       <c r="S15">
         <v>2.7914384384306699</v>
       </c>
@@ -3577,56 +3381,20 @@
       <c r="AK15">
         <v>2.5141922497490401</v>
       </c>
-      <c r="AN15" t="s">
-        <v>0</v>
+      <c r="AM15">
+        <v>2.3357115445486101</v>
+      </c>
+      <c r="AN15">
+        <v>2.4131997499776099</v>
       </c>
       <c r="AO15">
-        <v>4.0480170591029996</v>
+        <v>2.4433015343911801</v>
       </c>
       <c r="AP15">
-        <v>1711</v>
-      </c>
-      <c r="AQ15">
-        <v>0.676454</v>
-      </c>
-      <c r="AR15">
-        <v>3.8937810000000002</v>
-      </c>
-      <c r="AS15">
-        <v>3113</v>
-      </c>
-      <c r="AT15">
-        <v>0.32437300000000002</v>
-      </c>
-      <c r="AU15">
-        <v>4.5218600000000002</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>4.4097298548007702</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ15">
-        <v>4.3220137245487402</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB15">
-        <v>4.4574653512540596</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD15">
-        <v>4.0684538840578099</v>
+        <v>2.4191172795587099</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.5718270924809996</v>
       </c>
@@ -3636,6 +3404,12 @@
       <c r="C16">
         <v>3.3256890000000001</v>
       </c>
+      <c r="D16">
+        <v>1711</v>
+      </c>
+      <c r="E16">
+        <v>3.8937810000000002</v>
+      </c>
       <c r="F16">
         <v>2804</v>
       </c>
@@ -3666,6 +3440,12 @@
       <c r="O16">
         <v>4.4298820000000001</v>
       </c>
+      <c r="P16">
+        <v>3113</v>
+      </c>
+      <c r="Q16">
+        <v>4.5218600000000002</v>
+      </c>
       <c r="S16">
         <v>4.67171246995008</v>
       </c>
@@ -3714,56 +3494,20 @@
       <c r="AK16">
         <v>4.0337950217468697</v>
       </c>
-      <c r="AN16" t="s">
-        <v>0</v>
+      <c r="AM16">
+        <v>4.4097298548007702</v>
+      </c>
+      <c r="AN16">
+        <v>4.3220137245487402</v>
       </c>
       <c r="AO16">
-        <v>2.9563411958049999</v>
+        <v>4.4574653512540596</v>
       </c>
       <c r="AP16">
-        <v>1845</v>
-      </c>
-      <c r="AQ16">
-        <v>0.60007299999999997</v>
-      </c>
-      <c r="AR16">
-        <v>2.8368350000000002</v>
-      </c>
-      <c r="AS16">
-        <v>2635</v>
-      </c>
-      <c r="AT16">
-        <v>0.30298599999999998</v>
-      </c>
-      <c r="AU16">
-        <v>3.323798</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>2.9031587633052198</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ16">
-        <v>2.8708907529744101</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB16">
-        <v>3.0424071659802698</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD16">
-        <v>2.8531458938062202</v>
+        <v>4.0684538840578099</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.2435602713209999</v>
       </c>
@@ -3773,6 +3517,12 @@
       <c r="C17">
         <v>2.4482919999999999</v>
       </c>
+      <c r="D17">
+        <v>1845</v>
+      </c>
+      <c r="E17">
+        <v>2.8368350000000002</v>
+      </c>
       <c r="F17">
         <v>3184</v>
       </c>
@@ -3803,6 +3553,12 @@
       <c r="O17">
         <v>3.351715</v>
       </c>
+      <c r="P17">
+        <v>2635</v>
+      </c>
+      <c r="Q17">
+        <v>3.323798</v>
+      </c>
       <c r="S17">
         <v>3.2023176077501501</v>
       </c>
@@ -3851,56 +3607,20 @@
       <c r="AK17">
         <v>2.9324937753916802</v>
       </c>
-      <c r="AN17" t="s">
-        <v>0</v>
+      <c r="AM17">
+        <v>2.9031587633052198</v>
+      </c>
+      <c r="AN17">
+        <v>2.8708907529744101</v>
       </c>
       <c r="AO17">
-        <v>6.3097550380670002</v>
+        <v>3.0424071659802698</v>
       </c>
       <c r="AP17">
-        <v>1220</v>
-      </c>
-      <c r="AQ17">
-        <v>0.61734699999999998</v>
-      </c>
-      <c r="AR17">
-        <v>6.1309149999999999</v>
-      </c>
-      <c r="AS17">
-        <v>2456</v>
-      </c>
-      <c r="AT17">
-        <v>0.58797200000000005</v>
-      </c>
-      <c r="AU17">
-        <v>6.6653330000000004</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>5.28175787679558</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ17">
-        <v>5.6839084114846798</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB17">
-        <v>5.7806743236022298</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD17">
-        <v>5.6519294446849901</v>
+        <v>2.8531458938062202</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7.0476526356269904</v>
       </c>
@@ -3910,6 +3630,12 @@
       <c r="C18">
         <v>5.0982539999999998</v>
       </c>
+      <c r="D18">
+        <v>1220</v>
+      </c>
+      <c r="E18">
+        <v>6.1309149999999999</v>
+      </c>
       <c r="F18">
         <v>1583</v>
       </c>
@@ -3940,6 +3666,12 @@
       <c r="O18">
         <v>6.3661409999999998</v>
       </c>
+      <c r="P18">
+        <v>2456</v>
+      </c>
+      <c r="Q18">
+        <v>6.6653330000000004</v>
+      </c>
       <c r="S18">
         <v>6.1510326521101399</v>
       </c>
@@ -3988,56 +3720,20 @@
       <c r="AK18">
         <v>6.1699774562113001</v>
       </c>
-      <c r="AN18" t="s">
-        <v>0</v>
+      <c r="AM18">
+        <v>5.28175787679558</v>
+      </c>
+      <c r="AN18">
+        <v>5.6839084114846798</v>
       </c>
       <c r="AO18">
-        <v>6.5805476500119999</v>
+        <v>5.7806743236022298</v>
       </c>
       <c r="AP18">
-        <v>1016</v>
-      </c>
-      <c r="AQ18">
-        <v>0.303342</v>
-      </c>
-      <c r="AR18">
-        <v>6.52433</v>
-      </c>
-      <c r="AS18">
-        <v>1904</v>
-      </c>
-      <c r="AT18">
-        <v>0.28123199999999998</v>
-      </c>
-      <c r="AU18">
-        <v>7.1563629999999998</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>5.9385905572331898</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ18">
-        <v>5.85220973107206</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB18">
-        <v>6.2888270713991998</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD18">
-        <v>6.3230640253515702</v>
+        <v>5.6519294446849901</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.084233538386</v>
       </c>
@@ -4047,6 +3743,12 @@
       <c r="C19">
         <v>6.4591510000000003</v>
       </c>
+      <c r="D19">
+        <v>1016</v>
+      </c>
+      <c r="E19">
+        <v>6.52433</v>
+      </c>
       <c r="F19">
         <v>1763</v>
       </c>
@@ -4077,6 +3779,12 @@
       <c r="O19">
         <v>6.6435919999999999</v>
       </c>
+      <c r="P19">
+        <v>1904</v>
+      </c>
+      <c r="Q19">
+        <v>7.1563629999999998</v>
+      </c>
       <c r="S19">
         <v>6.4902059864286699</v>
       </c>
@@ -4125,56 +3833,20 @@
       <c r="AK19">
         <v>6.8963074681617398</v>
       </c>
-      <c r="AN19" t="s">
-        <v>0</v>
+      <c r="AM19">
+        <v>5.9385905572331898</v>
+      </c>
+      <c r="AN19">
+        <v>5.85220973107206</v>
       </c>
       <c r="AO19">
-        <v>6.6936913543739998</v>
+        <v>6.2888270713991998</v>
       </c>
       <c r="AP19">
-        <v>1060</v>
-      </c>
-      <c r="AQ19">
-        <v>0.43353399999999997</v>
-      </c>
-      <c r="AR19">
-        <v>6.3202220000000002</v>
-      </c>
-      <c r="AS19">
-        <v>3904</v>
-      </c>
-      <c r="AT19">
-        <v>0.32877699999999999</v>
-      </c>
-      <c r="AU19">
-        <v>7.2022550000000001</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>6.0627419925953099</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ19">
-        <v>6.11129169495055</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB19">
-        <v>5.9579315893243603</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD19">
-        <v>6.0228338990768799</v>
+        <v>6.3230640253515702</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.2615450685680001</v>
       </c>
@@ -4184,6 +3856,12 @@
       <c r="C20">
         <v>6.1917</v>
       </c>
+      <c r="D20">
+        <v>1060</v>
+      </c>
+      <c r="E20">
+        <v>6.3202220000000002</v>
+      </c>
       <c r="F20">
         <v>1828</v>
       </c>
@@ -4214,6 +3892,12 @@
       <c r="O20">
         <v>6.7808380000000001</v>
       </c>
+      <c r="P20">
+        <v>3904</v>
+      </c>
+      <c r="Q20">
+        <v>7.2022550000000001</v>
+      </c>
       <c r="S20">
         <v>6.8513995556060099</v>
       </c>
@@ -4262,56 +3946,20 @@
       <c r="AK20">
         <v>6.2284300407646702</v>
       </c>
-      <c r="AN20" t="s">
-        <v>0</v>
+      <c r="AM20">
+        <v>6.0627419925953099</v>
+      </c>
+      <c r="AN20">
+        <v>6.11129169495055</v>
       </c>
       <c r="AO20">
-        <v>4.0123947913489904</v>
+        <v>5.9579315893243603</v>
       </c>
       <c r="AP20">
-        <v>1795</v>
-      </c>
-      <c r="AQ20">
-        <v>0.15306900000000001</v>
-      </c>
-      <c r="AR20">
-        <v>4.1567930000000004</v>
-      </c>
-      <c r="AS20">
-        <v>1946</v>
-      </c>
-      <c r="AT20">
-        <v>0.65731300000000004</v>
-      </c>
-      <c r="AU20">
-        <v>4.7647789999999999</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>3.6263733940477101</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ20">
-        <v>3.6943841109484099</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB20">
-        <v>3.7313042266079401</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD20">
-        <v>3.9737126560661298</v>
+        <v>6.0228338990768799</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.1344303609889996</v>
       </c>
@@ -4321,6 +3969,12 @@
       <c r="C21">
         <v>3.9604249999999999</v>
       </c>
+      <c r="D21">
+        <v>1795</v>
+      </c>
+      <c r="E21">
+        <v>4.1567930000000004</v>
+      </c>
       <c r="F21">
         <v>2927</v>
       </c>
@@ -4351,6 +4005,12 @@
       <c r="O21">
         <v>4.2083000000000004</v>
       </c>
+      <c r="P21">
+        <v>1946</v>
+      </c>
+      <c r="Q21">
+        <v>4.7647789999999999</v>
+      </c>
       <c r="S21">
         <v>4.0733627179767797</v>
       </c>
@@ -4399,56 +4059,20 @@
       <c r="AK21">
         <v>4.0562322744850103</v>
       </c>
-      <c r="AN21" t="s">
-        <v>0</v>
+      <c r="AM21">
+        <v>3.6263733940477101</v>
+      </c>
+      <c r="AN21">
+        <v>3.6943841109484099</v>
       </c>
       <c r="AO21">
-        <v>6.3047467417339904</v>
+        <v>3.7313042266079401</v>
       </c>
       <c r="AP21">
-        <v>1746</v>
-      </c>
-      <c r="AQ21">
-        <v>0.14874599999999999</v>
-      </c>
-      <c r="AR21">
-        <v>5.689495</v>
-      </c>
-      <c r="AS21">
-        <v>3066</v>
-      </c>
-      <c r="AT21">
-        <v>0.27139400000000002</v>
-      </c>
-      <c r="AU21">
-        <v>6.3535969999999997</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>5.43521631076967</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ21">
-        <v>5.4640180923952402</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB21">
-        <v>5.4874825297455896</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD21">
-        <v>5.6708817124230002</v>
+        <v>3.9737126560661298</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6.6347201325859899</v>
       </c>
@@ -4458,6 +4082,12 @@
       <c r="C22">
         <v>5.360258</v>
       </c>
+      <c r="D22">
+        <v>1746</v>
+      </c>
+      <c r="E22">
+        <v>5.689495</v>
+      </c>
       <c r="F22">
         <v>2892</v>
       </c>
@@ -4488,6 +4118,12 @@
       <c r="O22">
         <v>6.0263159999999996</v>
       </c>
+      <c r="P22">
+        <v>3066</v>
+      </c>
+      <c r="Q22">
+        <v>6.3535969999999997</v>
+      </c>
       <c r="S22">
         <v>6.00652732690149</v>
       </c>
@@ -4536,56 +4172,20 @@
       <c r="AK22">
         <v>5.8822444621664101</v>
       </c>
-      <c r="AN22" t="s">
-        <v>0</v>
+      <c r="AM22">
+        <v>5.43521631076967</v>
+      </c>
+      <c r="AN22">
+        <v>5.4640180923952402</v>
       </c>
       <c r="AO22">
-        <v>5.6036636728650002</v>
+        <v>5.4874825297455896</v>
       </c>
       <c r="AP22">
-        <v>1704</v>
-      </c>
-      <c r="AQ22">
-        <v>0.43638100000000002</v>
-      </c>
-      <c r="AR22">
-        <v>5.2142770000000001</v>
-      </c>
-      <c r="AS22">
-        <v>2799</v>
-      </c>
-      <c r="AT22">
-        <v>0.27580300000000002</v>
-      </c>
-      <c r="AU22">
-        <v>6.019933</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>5.0748182347848596</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ22">
-        <v>5.1549243102539499</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB22">
-        <v>5.36420020810667</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD22">
-        <v>5.3004740280376597</v>
+        <v>5.6708817124230002</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.9306832948480004</v>
       </c>
@@ -4595,6 +4195,12 @@
       <c r="C23">
         <v>4.8308479999999996</v>
       </c>
+      <c r="D23">
+        <v>1704</v>
+      </c>
+      <c r="E23">
+        <v>5.2142770000000001</v>
+      </c>
       <c r="F23">
         <v>2461</v>
       </c>
@@ -4625,6 +4231,12 @@
       <c r="O23">
         <v>6.063822</v>
       </c>
+      <c r="P23">
+        <v>2799</v>
+      </c>
+      <c r="Q23">
+        <v>6.019933</v>
+      </c>
       <c r="S23">
         <v>5.6462761461843396</v>
       </c>
@@ -4673,56 +4285,20 @@
       <c r="AK23">
         <v>5.4807160475143002</v>
       </c>
-      <c r="AN23" t="s">
-        <v>0</v>
+      <c r="AM23">
+        <v>5.0748182347848596</v>
+      </c>
+      <c r="AN23">
+        <v>5.1549243102539499</v>
       </c>
       <c r="AO23">
-        <v>4.1808343378559902</v>
+        <v>5.36420020810667</v>
       </c>
       <c r="AP23">
-        <v>1231</v>
-      </c>
-      <c r="AQ23">
-        <v>0.84896700000000003</v>
-      </c>
-      <c r="AR23">
-        <v>3.9117009999999999</v>
-      </c>
-      <c r="AS23">
-        <v>2086</v>
-      </c>
-      <c r="AT23">
-        <v>1.5232190000000001</v>
-      </c>
-      <c r="AU23">
-        <v>4.3078839999999996</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>3.8979961125569198</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ23">
-        <v>3.8958487369494899</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB23">
-        <v>4.02473336855335</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD23">
-        <v>3.9660847666964401</v>
+        <v>5.3004740280376597</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4222553395209996</v>
       </c>
@@ -4732,6 +4308,12 @@
       <c r="C24">
         <v>3.919359</v>
       </c>
+      <c r="D24">
+        <v>1231</v>
+      </c>
+      <c r="E24">
+        <v>3.9117009999999999</v>
+      </c>
       <c r="F24">
         <v>1857</v>
       </c>
@@ -4762,6 +4344,12 @@
       <c r="O24">
         <v>4.1337440000000001</v>
       </c>
+      <c r="P24">
+        <v>2086</v>
+      </c>
+      <c r="Q24">
+        <v>4.3078839999999996</v>
+      </c>
       <c r="S24">
         <v>4.2311072023458296</v>
       </c>
@@ -4810,56 +4398,20 @@
       <c r="AK24">
         <v>4.0410692794776599</v>
       </c>
-      <c r="AN24" t="s">
-        <v>0</v>
+      <c r="AM24">
+        <v>3.8979961125569198</v>
+      </c>
+      <c r="AN24">
+        <v>3.8958487369494899</v>
       </c>
       <c r="AO24">
-        <v>2.20405353675</v>
+        <v>4.02473336855335</v>
       </c>
       <c r="AP24">
-        <v>1695</v>
-      </c>
-      <c r="AQ24">
-        <v>0.33998200000000001</v>
-      </c>
-      <c r="AR24">
-        <v>2.1436299999999999</v>
-      </c>
-      <c r="AS24">
-        <v>2580</v>
-      </c>
-      <c r="AT24">
-        <v>0.38121100000000002</v>
-      </c>
-      <c r="AU24">
-        <v>2.3982839999999999</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>2.0542686727101001</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ24">
-        <v>1.8814238531540499</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB24">
-        <v>2.1242135114979401</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD24">
-        <v>2.0134707887741201</v>
+        <v>3.9660847666964401</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.4030708352839998</v>
       </c>
@@ -4869,6 +4421,12 @@
       <c r="C25">
         <v>2.0448650000000002</v>
       </c>
+      <c r="D25">
+        <v>1695</v>
+      </c>
+      <c r="E25">
+        <v>2.1436299999999999</v>
+      </c>
       <c r="F25">
         <v>2957</v>
       </c>
@@ -4899,6 +4457,12 @@
       <c r="O25">
         <v>2.4153479999999998</v>
       </c>
+      <c r="P25">
+        <v>2580</v>
+      </c>
+      <c r="Q25">
+        <v>2.3982839999999999</v>
+      </c>
       <c r="S25">
         <v>2.32156524152653</v>
       </c>
@@ -4947,56 +4511,20 @@
       <c r="AK25">
         <v>2.1402527690909898</v>
       </c>
-      <c r="AN25" t="s">
-        <v>0</v>
+      <c r="AM25">
+        <v>2.0542686727101001</v>
+      </c>
+      <c r="AN25">
+        <v>1.8814238531540499</v>
       </c>
       <c r="AO25">
-        <v>6.2740653242619997</v>
+        <v>2.1242135114979401</v>
       </c>
       <c r="AP25">
-        <v>1319</v>
-      </c>
-      <c r="AQ25">
-        <v>0.79581500000000005</v>
-      </c>
-      <c r="AR25">
-        <v>5.795966</v>
-      </c>
-      <c r="AS25">
-        <v>3231</v>
-      </c>
-      <c r="AT25">
-        <v>0.44479800000000003</v>
-      </c>
-      <c r="AU25">
-        <v>6.8309939999999996</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>4.8396785353102301</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ25">
-        <v>4.82101540078125</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB25">
-        <v>5.54601919763018</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD25">
-        <v>5.7324889660773302</v>
+        <v>2.0134707887741201</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.6750677747139999</v>
       </c>
@@ -5006,6 +4534,12 @@
       <c r="C26">
         <v>5.7985220000000002</v>
       </c>
+      <c r="D26">
+        <v>1319</v>
+      </c>
+      <c r="E26">
+        <v>5.795966</v>
+      </c>
       <c r="F26">
         <v>2028</v>
       </c>
@@ -5036,6 +4570,12 @@
       <c r="O26">
         <v>6.0553879999999998</v>
       </c>
+      <c r="P26">
+        <v>3231</v>
+      </c>
+      <c r="Q26">
+        <v>6.8309939999999996</v>
+      </c>
       <c r="S26">
         <v>6.2809618062415797</v>
       </c>
@@ -5084,56 +4624,20 @@
       <c r="AK26">
         <v>6.0415332736509102</v>
       </c>
-      <c r="AN26" t="s">
-        <v>0</v>
+      <c r="AM26">
+        <v>4.8396785353102301</v>
+      </c>
+      <c r="AN26">
+        <v>4.82101540078125</v>
       </c>
       <c r="AO26">
-        <v>6.783898827062</v>
+        <v>5.54601919763018</v>
       </c>
       <c r="AP26">
-        <v>1642</v>
-      </c>
-      <c r="AQ26">
-        <v>1.4040280000000001</v>
-      </c>
-      <c r="AR26">
-        <v>5.6313029999999999</v>
-      </c>
-      <c r="AS26">
-        <v>3857</v>
-      </c>
-      <c r="AT26">
-        <v>0.37583100000000003</v>
-      </c>
-      <c r="AU26">
-        <v>6.3767209999999999</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>6.2735890707836797</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ26">
-        <v>5.8922258710222497</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB26">
-        <v>5.7702900768874104</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD26">
-        <v>6.2396556261875897</v>
+        <v>5.7324889660773302</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7.1800684282800002</v>
       </c>
@@ -5143,6 +4647,12 @@
       <c r="C27">
         <v>5.5267730000000004</v>
       </c>
+      <c r="D27">
+        <v>1642</v>
+      </c>
+      <c r="E27">
+        <v>5.6313029999999999</v>
+      </c>
       <c r="F27">
         <v>2512</v>
       </c>
@@ -5173,6 +4683,12 @@
       <c r="O27">
         <v>6.1092250000000003</v>
       </c>
+      <c r="P27">
+        <v>3857</v>
+      </c>
+      <c r="Q27">
+        <v>6.3767209999999999</v>
+      </c>
       <c r="S27">
         <v>6.5159314732219604</v>
       </c>
@@ -5221,56 +4737,20 @@
       <c r="AK27">
         <v>6.5365321818257804</v>
       </c>
-      <c r="AN27" t="s">
-        <v>0</v>
+      <c r="AM27">
+        <v>6.2735890707836797</v>
+      </c>
+      <c r="AN27">
+        <v>5.8922258710222497</v>
       </c>
       <c r="AO27">
-        <v>7.1839339231880004</v>
+        <v>5.7702900768874104</v>
       </c>
       <c r="AP27">
-        <v>1728</v>
-      </c>
-      <c r="AQ27">
-        <v>0.47130699999999998</v>
-      </c>
-      <c r="AR27">
-        <v>6.4093929999999997</v>
-      </c>
-      <c r="AS27">
-        <v>1898</v>
-      </c>
-      <c r="AT27">
-        <v>0.75476699999999997</v>
-      </c>
-      <c r="AU27">
-        <v>7.5860700000000003</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>6.2272380498924997</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ27">
-        <v>6.3708998680004703</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB27">
-        <v>5.9848408517837202</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD27">
-        <v>6.1141701880108901</v>
+        <v>6.2396556261875897</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7.5873296458699997</v>
       </c>
@@ -5280,6 +4760,12 @@
       <c r="C28">
         <v>5.3608010000000004</v>
       </c>
+      <c r="D28">
+        <v>1728</v>
+      </c>
+      <c r="E28">
+        <v>6.4093929999999997</v>
+      </c>
       <c r="F28">
         <v>2691</v>
       </c>
@@ -5310,6 +4796,12 @@
       <c r="O28">
         <v>7.5847069999999999</v>
       </c>
+      <c r="P28">
+        <v>1898</v>
+      </c>
+      <c r="Q28">
+        <v>7.5860700000000003</v>
+      </c>
       <c r="S28">
         <v>7.4639463795515901</v>
       </c>
@@ -5358,56 +4850,20 @@
       <c r="AK28">
         <v>6.9192498355993797</v>
       </c>
-      <c r="AN28" t="s">
-        <v>0</v>
+      <c r="AM28">
+        <v>6.2272380498924997</v>
+      </c>
+      <c r="AN28">
+        <v>6.3708998680004703</v>
       </c>
       <c r="AO28">
-        <v>5.6595792611719897</v>
+        <v>5.9848408517837202</v>
       </c>
       <c r="AP28">
-        <v>1640</v>
-      </c>
-      <c r="AQ28">
-        <v>1.2081409999999999</v>
-      </c>
-      <c r="AR28">
-        <v>5.6097780000000004</v>
-      </c>
-      <c r="AS28">
-        <v>4728</v>
-      </c>
-      <c r="AT28">
-        <v>0.394845</v>
-      </c>
-      <c r="AU28">
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>4.9497183736245596</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ28">
-        <v>5.1005375169566598</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB28">
-        <v>5.03636514738246</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD28">
-        <v>5.2342219640126002</v>
+        <v>6.1141701880108901</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6.1524771688259996</v>
       </c>
@@ -5417,6 +4873,12 @@
       <c r="C29">
         <v>5.5934999999999997</v>
       </c>
+      <c r="D29">
+        <v>1640</v>
+      </c>
+      <c r="E29">
+        <v>5.6097780000000004</v>
+      </c>
       <c r="F29">
         <v>2483</v>
       </c>
@@ -5447,6 +4909,12 @@
       <c r="O29">
         <v>5.8157579999999998</v>
       </c>
+      <c r="P29">
+        <v>4728</v>
+      </c>
+      <c r="Q29">
+        <v>6.0960000000000001</v>
+      </c>
       <c r="S29">
         <v>5.8201235568898504</v>
       </c>
@@ -5495,56 +4963,20 @@
       <c r="AK29">
         <v>5.2915101983407302</v>
       </c>
-      <c r="AN29" t="s">
-        <v>0</v>
+      <c r="AM29">
+        <v>4.9497183736245596</v>
+      </c>
+      <c r="AN29">
+        <v>5.1005375169566598</v>
       </c>
       <c r="AO29">
-        <v>3.9004468359599902</v>
+        <v>5.03636514738246</v>
       </c>
       <c r="AP29">
-        <v>1714</v>
-      </c>
-      <c r="AQ29">
-        <v>1.3318220000000001</v>
-      </c>
-      <c r="AR29">
-        <v>3.808557</v>
-      </c>
-      <c r="AS29">
-        <v>4860</v>
-      </c>
-      <c r="AT29">
-        <v>0.203316</v>
-      </c>
-      <c r="AU29">
-        <v>4.1117179999999998</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>3.7640121320734701</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ29">
-        <v>3.71886923137167</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB29">
-        <v>3.8564785819198599</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD29">
-        <v>3.7507985517571498</v>
+        <v>5.2342219640126002</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4.0120617806399999</v>
       </c>
@@ -5554,6 +4986,12 @@
       <c r="C30">
         <v>3.6571069999999999</v>
       </c>
+      <c r="D30">
+        <v>1714</v>
+      </c>
+      <c r="E30">
+        <v>3.808557</v>
+      </c>
       <c r="F30">
         <v>2620</v>
       </c>
@@ -5584,6 +5022,12 @@
       <c r="O30">
         <v>4.0036209999999999</v>
       </c>
+      <c r="P30">
+        <v>4860</v>
+      </c>
+      <c r="Q30">
+        <v>4.1117179999999998</v>
+      </c>
       <c r="S30">
         <v>3.9788801948038</v>
       </c>
@@ -5632,56 +5076,20 @@
       <c r="AK30">
         <v>3.8046056194228299</v>
       </c>
-      <c r="AN30" t="s">
-        <v>0</v>
+      <c r="AM30">
+        <v>3.7640121320734701</v>
+      </c>
+      <c r="AN30">
+        <v>3.71886923137167</v>
       </c>
       <c r="AO30">
-        <v>5.2209114388559996</v>
+        <v>3.8564785819198599</v>
       </c>
       <c r="AP30">
-        <v>1710</v>
-      </c>
-      <c r="AQ30">
-        <v>0.77529899999999996</v>
-      </c>
-      <c r="AR30">
-        <v>4.3093750000000002</v>
-      </c>
-      <c r="AS30">
-        <v>3851</v>
-      </c>
-      <c r="AT30">
-        <v>0.81489900000000004</v>
-      </c>
-      <c r="AU30">
-        <v>5.6157240000000002</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>5.2295577381674097</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ30">
-        <v>5.2266495406176903</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB30">
-        <v>5.1454627642614099</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD30">
-        <v>5.5270083454515797</v>
+        <v>3.7507985517571498</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5.7830772929909999</v>
       </c>
@@ -5691,6 +5099,12 @@
       <c r="C31">
         <v>3.6852930000000002</v>
       </c>
+      <c r="D31">
+        <v>1710</v>
+      </c>
+      <c r="E31">
+        <v>4.3093750000000002</v>
+      </c>
       <c r="F31">
         <v>2865</v>
       </c>
@@ -5721,6 +5135,12 @@
       <c r="O31">
         <v>5.8493919999999999</v>
       </c>
+      <c r="P31">
+        <v>3851</v>
+      </c>
+      <c r="Q31">
+        <v>5.6157240000000002</v>
+      </c>
       <c r="S31">
         <v>5.6072163473911596</v>
       </c>
@@ -5769,56 +5189,20 @@
       <c r="AK31">
         <v>5.6770439459077204</v>
       </c>
-      <c r="AN31" t="s">
-        <v>0</v>
+      <c r="AM31">
+        <v>5.2295577381674097</v>
+      </c>
+      <c r="AN31">
+        <v>5.2266495406176903</v>
       </c>
       <c r="AO31">
-        <v>4.9495656716819996</v>
+        <v>5.1454627642614099</v>
       </c>
       <c r="AP31">
-        <v>1524</v>
-      </c>
-      <c r="AQ31">
-        <v>0.77557600000000004</v>
-      </c>
-      <c r="AR31">
-        <v>4.7894310000000004</v>
-      </c>
-      <c r="AS31">
-        <v>2592</v>
-      </c>
-      <c r="AT31">
-        <v>0.314886</v>
-      </c>
-      <c r="AU31">
-        <v>5.0676240000000004</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>4.69736324043404</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ31">
-        <v>4.5754873843655997</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB31">
-        <v>4.9076328050355604</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD31">
-        <v>4.6402041117047403</v>
+        <v>5.5270083454515797</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5.1262746328909996</v>
       </c>
@@ -5828,6 +5212,12 @@
       <c r="C32">
         <v>4.5994950000000001</v>
       </c>
+      <c r="D32">
+        <v>1524</v>
+      </c>
+      <c r="E32">
+        <v>4.7894310000000004</v>
+      </c>
       <c r="F32">
         <v>2446</v>
       </c>
@@ -5858,6 +5248,12 @@
       <c r="O32">
         <v>5.0623709999999997</v>
       </c>
+      <c r="P32">
+        <v>2592</v>
+      </c>
+      <c r="Q32">
+        <v>5.0676240000000004</v>
+      </c>
       <c r="S32">
         <v>5.0304251988517796</v>
       </c>
@@ -5906,56 +5302,20 @@
       <c r="AK32">
         <v>4.8934629465231501</v>
       </c>
-      <c r="AN32" t="s">
-        <v>0</v>
+      <c r="AM32">
+        <v>4.69736324043404</v>
+      </c>
+      <c r="AN32">
+        <v>4.5754873843655997</v>
       </c>
       <c r="AO32">
-        <v>4.7313642523809998</v>
+        <v>4.9076328050355604</v>
       </c>
       <c r="AP32">
-        <v>1429</v>
-      </c>
-      <c r="AQ32">
-        <v>0.51636499999999996</v>
-      </c>
-      <c r="AR32">
-        <v>4.977525</v>
-      </c>
-      <c r="AS32">
-        <v>3150</v>
-      </c>
-      <c r="AT32">
-        <v>0.61538899999999996</v>
-      </c>
-      <c r="AU32">
-        <v>5.3857470000000003</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>4.37033084400682</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ32">
-        <v>4.6817789090949899</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB32">
-        <v>4.4515525488478804</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD32">
-        <v>4.42693595674048</v>
+        <v>4.6402041117047403</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4.9922648605699997</v>
       </c>
@@ -5965,6 +5325,12 @@
       <c r="C33">
         <v>4.5058249999999997</v>
       </c>
+      <c r="D33">
+        <v>1429</v>
+      </c>
+      <c r="E33">
+        <v>4.977525</v>
+      </c>
       <c r="F33">
         <v>2198</v>
       </c>
@@ -5995,6 +5361,12 @@
       <c r="O33">
         <v>5.0201750000000001</v>
       </c>
+      <c r="P33">
+        <v>3150</v>
+      </c>
+      <c r="Q33">
+        <v>5.3857470000000003</v>
+      </c>
       <c r="S33">
         <v>4.9030560277747002</v>
       </c>
@@ -6043,56 +5415,20 @@
       <c r="AK33">
         <v>4.3483229093382096</v>
       </c>
-      <c r="AN33" t="s">
-        <v>0</v>
+      <c r="AM33">
+        <v>4.37033084400682</v>
+      </c>
+      <c r="AN33">
+        <v>4.6817789090949899</v>
       </c>
       <c r="AO33">
-        <v>5.2672510491249902</v>
+        <v>4.4515525488478804</v>
       </c>
       <c r="AP33">
-        <v>1517</v>
-      </c>
-      <c r="AQ33">
-        <v>0.61449299999999996</v>
-      </c>
-      <c r="AR33">
-        <v>4.988016</v>
-      </c>
-      <c r="AS33">
-        <v>4661</v>
-      </c>
-      <c r="AT33">
-        <v>0.518127</v>
-      </c>
-      <c r="AU33">
-        <v>5.1731790000000002</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX33">
-        <v>4.3729689787266901</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ33">
-        <v>4.3121874512682599</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB33">
-        <v>4.46423682447878</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD33">
-        <v>4.4952536919977302</v>
+        <v>4.42693595674048</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.6256093134129896</v>
       </c>
@@ -6102,6 +5438,12 @@
       <c r="C34">
         <v>4.655481</v>
       </c>
+      <c r="D34">
+        <v>1517</v>
+      </c>
+      <c r="E34">
+        <v>4.988016</v>
+      </c>
       <c r="F34">
         <v>2658</v>
       </c>
@@ -6132,6 +5474,12 @@
       <c r="O34">
         <v>5.0205900000000003</v>
       </c>
+      <c r="P34">
+        <v>4661</v>
+      </c>
+      <c r="Q34">
+        <v>5.1731790000000002</v>
+      </c>
       <c r="S34">
         <v>4.9087430153139504</v>
       </c>
@@ -6180,56 +5528,20 @@
       <c r="AK34">
         <v>4.80157433394203</v>
       </c>
-      <c r="AN34" t="s">
-        <v>0</v>
+      <c r="AM34">
+        <v>4.3729689787266901</v>
+      </c>
+      <c r="AN34">
+        <v>4.3121874512682599</v>
       </c>
       <c r="AO34">
-        <v>5.6161346079880001</v>
+        <v>4.46423682447878</v>
       </c>
       <c r="AP34">
-        <v>1392</v>
-      </c>
-      <c r="AQ34">
-        <v>0.23261599999999999</v>
-      </c>
-      <c r="AR34">
-        <v>5.5448589999999998</v>
-      </c>
-      <c r="AS34">
-        <v>2686</v>
-      </c>
-      <c r="AT34">
-        <v>0.482983</v>
-      </c>
-      <c r="AU34">
-        <v>5.6393560000000003</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>5.3337588382005796</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ34">
-        <v>5.2878956730476103</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB34">
-        <v>5.0946460032123699</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD34">
-        <v>5.3204056812043596</v>
+        <v>4.4952536919977302</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.0972372484540003</v>
       </c>
@@ -6239,6 +5551,12 @@
       <c r="C35">
         <v>5.549061</v>
       </c>
+      <c r="D35">
+        <v>1392</v>
+      </c>
+      <c r="E35">
+        <v>5.5448589999999998</v>
+      </c>
       <c r="F35">
         <v>2368</v>
       </c>
@@ -6269,6 +5587,12 @@
       <c r="O35">
         <v>5.8118509999999999</v>
       </c>
+      <c r="P35">
+        <v>2686</v>
+      </c>
+      <c r="Q35">
+        <v>5.6393560000000003</v>
+      </c>
       <c r="S35">
         <v>5.6466618069787096</v>
       </c>
@@ -6317,56 +5641,20 @@
       <c r="AK35">
         <v>5.1233290531614104</v>
       </c>
-      <c r="AN35" t="s">
-        <v>0</v>
+      <c r="AM35">
+        <v>5.3337588382005796</v>
+      </c>
+      <c r="AN35">
+        <v>5.2878956730476103</v>
       </c>
       <c r="AO35">
-        <v>3.8768650851789901</v>
+        <v>5.0946460032123699</v>
       </c>
       <c r="AP35">
-        <v>1289</v>
-      </c>
-      <c r="AQ35">
-        <v>0.42530499999999999</v>
-      </c>
-      <c r="AR35">
-        <v>3.4748320000000001</v>
-      </c>
-      <c r="AS35">
-        <v>4202</v>
-      </c>
-      <c r="AT35">
-        <v>0.327789</v>
-      </c>
-      <c r="AU35">
-        <v>4.1434850000000001</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>3.66609472624847</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ35">
-        <v>3.6233469848998099</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB35">
-        <v>3.7158045632105701</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD35">
-        <v>3.5625930462189102</v>
+        <v>5.3204056812043596</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4.1122805528069897</v>
       </c>
@@ -6376,6 +5664,12 @@
       <c r="C36">
         <v>3.419257</v>
       </c>
+      <c r="D36">
+        <v>1289</v>
+      </c>
+      <c r="E36">
+        <v>3.4748320000000001</v>
+      </c>
       <c r="F36">
         <v>2112</v>
       </c>
@@ -6406,6 +5700,12 @@
       <c r="O36">
         <v>4.1483730000000003</v>
       </c>
+      <c r="P36">
+        <v>4202</v>
+      </c>
+      <c r="Q36">
+        <v>4.1434850000000001</v>
+      </c>
       <c r="S36">
         <v>4.0790883200753303</v>
       </c>
@@ -6454,72 +5754,20 @@
       <c r="AK36">
         <v>3.7292834410634401</v>
       </c>
+      <c r="AM36">
+        <v>3.66609472624847</v>
+      </c>
+      <c r="AN36">
+        <v>3.6233469848998099</v>
+      </c>
       <c r="AO36">
-        <f>AVERAGE(AO5:AO35)</f>
-        <v>5.0085903371065124</v>
+        <v>3.7158045632105701</v>
       </c>
       <c r="AP36">
-        <f t="shared" ref="AP36:BD36" si="0">AVERAGE(AP5:AP35)</f>
-        <v>1581.6774193548388</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" si="0"/>
-        <v>0.60628164516129024</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="0"/>
-        <v>4.7559234838709674</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="0"/>
-        <v>3320.516129032258</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="0"/>
-        <v>0.4634632903225806</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="0"/>
-        <v>5.3120098064516128</v>
-      </c>
-      <c r="AV36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX36">
-        <f t="shared" si="0"/>
-        <v>4.6995287423922161</v>
-      </c>
-      <c r="AY36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ36">
-        <f t="shared" si="0"/>
-        <v>4.7064493258236473</v>
-      </c>
-      <c r="BA36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB36">
-        <f t="shared" si="0"/>
-        <v>4.7336084471007531</v>
-      </c>
-      <c r="BC36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD36">
-        <f t="shared" si="0"/>
-        <v>4.709844751696429</v>
+        <v>3.5625930462189102</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5.9398440714769896</v>
       </c>
@@ -6529,6 +5777,12 @@
       <c r="C37">
         <v>4.564025</v>
       </c>
+      <c r="D37">
+        <v>1418</v>
+      </c>
+      <c r="E37">
+        <v>4.823995</v>
+      </c>
       <c r="F37">
         <v>2476</v>
       </c>
@@ -6559,6 +5813,12 @@
       <c r="O37">
         <v>5.9126580000000004</v>
       </c>
+      <c r="P37">
+        <v>3181</v>
+      </c>
+      <c r="Q37">
+        <v>6.036416</v>
+      </c>
       <c r="S37">
         <v>6.16274912430094</v>
       </c>
@@ -6607,8 +5867,20 @@
       <c r="AK37">
         <v>5.6846864825988899</v>
       </c>
+      <c r="AM37">
+        <v>5.7143505003893003</v>
+      </c>
+      <c r="AN37">
+        <v>5.6901069593260702</v>
+      </c>
+      <c r="AO37">
+        <v>5.4937216307661298</v>
+      </c>
+      <c r="AP37">
+        <v>5.5417473241919497</v>
+      </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6.3234500823139896</v>
       </c>
@@ -6618,6 +5890,12 @@
       <c r="C38">
         <v>5.7132880000000004</v>
       </c>
+      <c r="D38">
+        <v>1385</v>
+      </c>
+      <c r="E38">
+        <v>5.9234099999999996</v>
+      </c>
       <c r="F38">
         <v>2343</v>
       </c>
@@ -6648,6 +5926,12 @@
       <c r="O38">
         <v>5.2055980000000002</v>
       </c>
+      <c r="P38">
+        <v>5180</v>
+      </c>
+      <c r="Q38">
+        <v>6.0626429999999996</v>
+      </c>
       <c r="S38">
         <v>5.8984181424330604</v>
       </c>
@@ -6696,8 +5980,20 @@
       <c r="AK38">
         <v>5.7041162450991099</v>
       </c>
+      <c r="AM38">
+        <v>5.3021998109019997</v>
+      </c>
+      <c r="AN38">
+        <v>5.6805082191789698</v>
+      </c>
+      <c r="AO38">
+        <v>5.7114454569056399</v>
+      </c>
+      <c r="AP38">
+        <v>5.6130033504316996</v>
+      </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7.2786692869859904</v>
       </c>
@@ -6707,6 +6003,12 @@
       <c r="C39">
         <v>5.6931450000000003</v>
       </c>
+      <c r="D39">
+        <v>1361</v>
+      </c>
+      <c r="E39">
+        <v>5.7922539999999998</v>
+      </c>
       <c r="F39">
         <v>2342</v>
       </c>
@@ -6737,6 +6039,12 @@
       <c r="O39">
         <v>7.3540200000000002</v>
       </c>
+      <c r="P39">
+        <v>1889</v>
+      </c>
+      <c r="Q39">
+        <v>7.3410149999999996</v>
+      </c>
       <c r="S39">
         <v>7.3207363085056096</v>
       </c>
@@ -6785,8 +6093,20 @@
       <c r="AK39">
         <v>7.1094170177597498</v>
       </c>
+      <c r="AM39">
+        <v>7.1254536423988597</v>
+      </c>
+      <c r="AN39">
+        <v>6.7971576027885101</v>
+      </c>
+      <c r="AO39">
+        <v>6.1633459603219496</v>
+      </c>
+      <c r="AP39">
+        <v>6.4174859693692801</v>
+      </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.9061954402589998</v>
       </c>
@@ -6796,6 +6116,12 @@
       <c r="C40">
         <v>2.966342</v>
       </c>
+      <c r="D40">
+        <v>1483</v>
+      </c>
+      <c r="E40">
+        <v>3.6340599999999998</v>
+      </c>
       <c r="F40">
         <v>2528</v>
       </c>
@@ -6826,6 +6152,12 @@
       <c r="O40">
         <v>3.910568</v>
       </c>
+      <c r="P40">
+        <v>5519</v>
+      </c>
+      <c r="Q40">
+        <v>3.8588420000000001</v>
+      </c>
       <c r="S40">
         <v>3.9555592683048202</v>
       </c>
@@ -6874,8 +6206,20 @@
       <c r="AK40">
         <v>3.6015280030384398</v>
       </c>
+      <c r="AM40">
+        <v>3.60758765012159</v>
+      </c>
+      <c r="AN40">
+        <v>3.5978420137175999</v>
+      </c>
+      <c r="AO40">
+        <v>3.7107700237889301</v>
+      </c>
+      <c r="AP40">
+        <v>3.7340980773638499</v>
+      </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.0133367085840002</v>
       </c>
@@ -6885,6 +6229,12 @@
       <c r="C41">
         <v>4.0629569999999999</v>
       </c>
+      <c r="D41">
+        <v>1357</v>
+      </c>
+      <c r="E41">
+        <v>4.1822280000000003</v>
+      </c>
       <c r="F41">
         <v>2190</v>
       </c>
@@ -6915,6 +6265,12 @@
       <c r="O41">
         <v>4.5424300000000004</v>
       </c>
+      <c r="P41">
+        <v>2195</v>
+      </c>
+      <c r="Q41">
+        <v>4.8126230000000003</v>
+      </c>
       <c r="S41">
         <v>4.8057014603955803</v>
       </c>
@@ -6963,8 +6319,20 @@
       <c r="AK41">
         <v>4.42940580340575</v>
       </c>
+      <c r="AM41">
+        <v>4.4348591648636102</v>
+      </c>
+      <c r="AN41">
+        <v>4.3373466433500099</v>
+      </c>
+      <c r="AO41">
+        <v>4.4518523299927804</v>
+      </c>
+      <c r="AP41">
+        <v>4.3820746673029598</v>
+      </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4.1569082488669897</v>
       </c>
@@ -6974,6 +6342,12 @@
       <c r="C42">
         <v>3.6032479999999998</v>
       </c>
+      <c r="D42">
+        <v>1603</v>
+      </c>
+      <c r="E42">
+        <v>3.6331799999999999</v>
+      </c>
       <c r="F42">
         <v>2550</v>
       </c>
@@ -7004,6 +6378,12 @@
       <c r="O42">
         <v>4.0500639999999999</v>
       </c>
+      <c r="P42">
+        <v>4830</v>
+      </c>
+      <c r="Q42">
+        <v>4.0242000000000004</v>
+      </c>
       <c r="S42">
         <v>4.1364268681499503</v>
       </c>
@@ -7052,8 +6432,20 @@
       <c r="AK42">
         <v>3.81574626550734</v>
       </c>
+      <c r="AM42">
+        <v>3.5962889862879899</v>
+      </c>
+      <c r="AN42">
+        <v>3.6584495489289401</v>
+      </c>
+      <c r="AO42">
+        <v>3.6011178480480099</v>
+      </c>
+      <c r="AP42">
+        <v>3.52003867798632</v>
+      </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.3512494436919997</v>
       </c>
@@ -7063,6 +6455,12 @@
       <c r="C43">
         <v>3.5865369999999999</v>
       </c>
+      <c r="D43">
+        <v>1490</v>
+      </c>
+      <c r="E43">
+        <v>3.853453</v>
+      </c>
       <c r="F43">
         <v>2642</v>
       </c>
@@ -7093,6 +6491,12 @@
       <c r="O43">
         <v>4.0701450000000001</v>
       </c>
+      <c r="P43">
+        <v>2190</v>
+      </c>
+      <c r="Q43">
+        <v>4.3589880000000001</v>
+      </c>
       <c r="S43">
         <v>4.2181042793184798</v>
       </c>
@@ -7141,8 +6545,20 @@
       <c r="AK43">
         <v>4.0469058167800798</v>
       </c>
+      <c r="AM43">
+        <v>4.0052851835939496</v>
+      </c>
+      <c r="AN43">
+        <v>3.8685492825718901</v>
+      </c>
+      <c r="AO43">
+        <v>3.7808648273528198</v>
+      </c>
+      <c r="AP43">
+        <v>4.1621325520752697</v>
+      </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.7920771842969998</v>
       </c>
@@ -7152,6 +6568,12 @@
       <c r="C44">
         <v>3.511355</v>
       </c>
+      <c r="D44">
+        <v>1899</v>
+      </c>
+      <c r="E44">
+        <v>3.4255010000000001</v>
+      </c>
       <c r="F44">
         <v>2908</v>
       </c>
@@ -7182,6 +6604,12 @@
       <c r="O44">
         <v>3.6738050000000002</v>
       </c>
+      <c r="P44">
+        <v>2295</v>
+      </c>
+      <c r="Q44">
+        <v>3.664898</v>
+      </c>
       <c r="S44">
         <v>3.75325167987027</v>
       </c>
@@ -7230,8 +6658,20 @@
       <c r="AK44">
         <v>3.3871540211764199</v>
       </c>
+      <c r="AM44">
+        <v>3.3674240780987801</v>
+      </c>
+      <c r="AN44">
+        <v>3.39313220465568</v>
+      </c>
+      <c r="AO44">
+        <v>3.3695914981228401</v>
+      </c>
+      <c r="AP44">
+        <v>3.3495068693683399</v>
+      </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6.5362262050659998</v>
       </c>
@@ -7241,6 +6681,12 @@
       <c r="C45">
         <v>6.3083400000000003</v>
       </c>
+      <c r="D45">
+        <v>1431</v>
+      </c>
+      <c r="E45">
+        <v>6.3222969999999998</v>
+      </c>
       <c r="F45">
         <v>2410</v>
       </c>
@@ -7271,6 +6717,12 @@
       <c r="O45">
         <v>5.3669690000000001</v>
       </c>
+      <c r="P45">
+        <v>7204</v>
+      </c>
+      <c r="Q45">
+        <v>6.6760489999999999</v>
+      </c>
       <c r="S45">
         <v>6.2260325984270297</v>
       </c>
@@ -7319,8 +6771,20 @@
       <c r="AK45">
         <v>5.6954914235086997</v>
       </c>
+      <c r="AM45">
+        <v>5.3417103182924803</v>
+      </c>
+      <c r="AN45">
+        <v>5.5581012368945997</v>
+      </c>
+      <c r="AO45">
+        <v>5.9770575123178604</v>
+      </c>
+      <c r="AP45">
+        <v>5.4686480303897298</v>
+      </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6.5248495977000003</v>
       </c>
@@ -7330,6 +6794,12 @@
       <c r="C46">
         <v>6.2474400000000001</v>
       </c>
+      <c r="D46">
+        <v>1290</v>
+      </c>
+      <c r="E46">
+        <v>6.2941450000000003</v>
+      </c>
       <c r="F46">
         <v>1950</v>
       </c>
@@ -7360,6 +6830,12 @@
       <c r="O46">
         <v>6.385656</v>
       </c>
+      <c r="P46">
+        <v>2788</v>
+      </c>
+      <c r="Q46">
+        <v>8.0915820000000007</v>
+      </c>
       <c r="S46">
         <v>6.5715602903563299</v>
       </c>
@@ -7408,8 +6884,20 @@
       <c r="AK46">
         <v>6.5448481739437696</v>
       </c>
+      <c r="AM46">
+        <v>6.2585809080167802</v>
+      </c>
+      <c r="AN46">
+        <v>6.4234256112612398</v>
+      </c>
+      <c r="AO46">
+        <v>6.4694803694536303</v>
+      </c>
+      <c r="AP46">
+        <v>6.3935991613805099</v>
+      </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.8315151664609903</v>
       </c>
@@ -7419,6 +6907,12 @@
       <c r="C47">
         <v>4.9483220000000001</v>
       </c>
+      <c r="D47">
+        <v>1479</v>
+      </c>
+      <c r="E47">
+        <v>5.1237459999999997</v>
+      </c>
       <c r="F47">
         <v>2396</v>
       </c>
@@ -7449,6 +6943,12 @@
       <c r="O47">
         <v>5.7237960000000001</v>
       </c>
+      <c r="P47">
+        <v>5568</v>
+      </c>
+      <c r="Q47">
+        <v>5.7352910000000001</v>
+      </c>
       <c r="S47">
         <v>5.7463959173635297</v>
       </c>
@@ -7497,8 +6997,20 @@
       <c r="AK47">
         <v>5.4779056842770499</v>
       </c>
+      <c r="AM47">
+        <v>5.5127927826055796</v>
+      </c>
+      <c r="AN47">
+        <v>5.32937680679641</v>
+      </c>
+      <c r="AO47">
+        <v>5.3605368341633</v>
+      </c>
+      <c r="AP47">
+        <v>5.5672227059862802</v>
+      </c>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.8220462719080004</v>
       </c>
@@ -7508,6 +7020,12 @@
       <c r="C48">
         <v>5.4261239999999997</v>
       </c>
+      <c r="D48">
+        <v>1201</v>
+      </c>
+      <c r="E48">
+        <v>5.3060489999999998</v>
+      </c>
       <c r="F48">
         <v>2352</v>
       </c>
@@ -7538,6 +7056,12 @@
       <c r="O48">
         <v>5.8907920000000003</v>
       </c>
+      <c r="P48">
+        <v>2270</v>
+      </c>
+      <c r="Q48">
+        <v>5.8294629999999996</v>
+      </c>
       <c r="S48">
         <v>5.8878548462350802</v>
       </c>
@@ -7586,8 +7110,20 @@
       <c r="AK48">
         <v>5.7978261885297702</v>
       </c>
+      <c r="AM48">
+        <v>5.3894103314292803</v>
+      </c>
+      <c r="AN48">
+        <v>5.6175250008203799</v>
+      </c>
+      <c r="AO48">
+        <v>5.7954308492862303</v>
+      </c>
+      <c r="AP48">
+        <v>5.5809566992527104</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3.53525695322499</v>
       </c>
@@ -7597,6 +7133,12 @@
       <c r="C49">
         <v>2.9612440000000002</v>
       </c>
+      <c r="D49">
+        <v>1587</v>
+      </c>
+      <c r="E49">
+        <v>3.0105360000000001</v>
+      </c>
       <c r="F49">
         <v>2614</v>
       </c>
@@ -7627,6 +7169,12 @@
       <c r="O49">
         <v>3.1927469999999998</v>
       </c>
+      <c r="P49">
+        <v>3101</v>
+      </c>
+      <c r="Q49">
+        <v>3.1562770000000002</v>
+      </c>
       <c r="S49">
         <v>3.45507842320256</v>
       </c>
@@ -7675,8 +7223,20 @@
       <c r="AK49">
         <v>3.3329454653677102</v>
       </c>
+      <c r="AM49">
+        <v>3.1377609289036199</v>
+      </c>
+      <c r="AN49">
+        <v>3.2304652567086398</v>
+      </c>
+      <c r="AO49">
+        <v>3.40918533901637</v>
+      </c>
+      <c r="AP49">
+        <v>3.3106227295767798</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.6937723267959903</v>
       </c>
@@ -7686,6 +7246,12 @@
       <c r="C50">
         <v>4.7847840000000001</v>
       </c>
+      <c r="D50">
+        <v>1785</v>
+      </c>
+      <c r="E50">
+        <v>4.8683630000000004</v>
+      </c>
       <c r="F50">
         <v>3052</v>
       </c>
@@ -7716,6 +7282,12 @@
       <c r="O50">
         <v>4.6904450000000004</v>
       </c>
+      <c r="P50">
+        <v>3054</v>
+      </c>
+      <c r="Q50">
+        <v>5.0734190000000003</v>
+      </c>
       <c r="S50">
         <v>4.72299056621</v>
       </c>
@@ -7764,8 +7336,20 @@
       <c r="AK50">
         <v>4.6895871651450696</v>
       </c>
+      <c r="AM50">
+        <v>4.6358800736705703</v>
+      </c>
+      <c r="AN50">
+        <v>4.6488255537278196</v>
+      </c>
+      <c r="AO50">
+        <v>4.69560531889302</v>
+      </c>
+      <c r="AP50">
+        <v>4.6789818948763999</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.6038647684779903</v>
       </c>
@@ -7775,6 +7359,12 @@
       <c r="C51">
         <v>6.4257900000000001</v>
       </c>
+      <c r="D51">
+        <v>1421</v>
+      </c>
+      <c r="E51">
+        <v>6.4177540000000004</v>
+      </c>
       <c r="F51">
         <v>2161</v>
       </c>
@@ -7805,6 +7395,12 @@
       <c r="O51">
         <v>6.6057480000000002</v>
       </c>
+      <c r="P51">
+        <v>3099</v>
+      </c>
+      <c r="Q51">
+        <v>6.6047120000000001</v>
+      </c>
       <c r="S51">
         <v>6.5588521654737804</v>
       </c>
@@ -7853,8 +7449,20 @@
       <c r="AK51">
         <v>6.4499406687537197</v>
       </c>
+      <c r="AM51">
+        <v>6.3104863608440898</v>
+      </c>
+      <c r="AN51">
+        <v>6.3831425831981203</v>
+      </c>
+      <c r="AO51">
+        <v>6.5114014424584203</v>
+      </c>
+      <c r="AP51">
+        <v>6.4329758306034499</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.2934646228839997</v>
       </c>
@@ -7864,6 +7472,12 @@
       <c r="C52">
         <v>4.4229459999999996</v>
       </c>
+      <c r="D52">
+        <v>1663</v>
+      </c>
+      <c r="E52">
+        <v>4.6152579999999999</v>
+      </c>
       <c r="F52">
         <v>2748</v>
       </c>
@@ -7894,6 +7508,12 @@
       <c r="O52">
         <v>4.8673500000000001</v>
       </c>
+      <c r="P52">
+        <v>2325</v>
+      </c>
+      <c r="Q52">
+        <v>5.1342449999999999</v>
+      </c>
       <c r="S52">
         <v>4.1515517255156897</v>
       </c>
@@ -7942,8 +7562,20 @@
       <c r="AK52">
         <v>3.91869615056881</v>
       </c>
+      <c r="AM52">
+        <v>3.8781575164670499</v>
+      </c>
+      <c r="AN52">
+        <v>3.9817145750177199</v>
+      </c>
+      <c r="AO52">
+        <v>4.0574672659091497</v>
+      </c>
+      <c r="AP52">
+        <v>3.9435303766357399</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.5383840083019997</v>
       </c>
@@ -7953,6 +7585,12 @@
       <c r="C53">
         <v>5.4944889999999997</v>
       </c>
+      <c r="D53">
+        <v>1150</v>
+      </c>
+      <c r="E53">
+        <v>5.6863659999999996</v>
+      </c>
       <c r="F53">
         <v>1871</v>
       </c>
@@ -7983,6 +7621,12 @@
       <c r="O53">
         <v>6.4311780000000001</v>
       </c>
+      <c r="P53">
+        <v>1930</v>
+      </c>
+      <c r="Q53">
+        <v>6.5649629999999997</v>
+      </c>
       <c r="S53">
         <v>6.4594105188074096</v>
       </c>
@@ -8031,8 +7675,20 @@
       <c r="AK53">
         <v>6.2829176055200797</v>
       </c>
+      <c r="AM53">
+        <v>5.9517435973898403</v>
+      </c>
+      <c r="AN53">
+        <v>6.1091499704857402</v>
+      </c>
+      <c r="AO53">
+        <v>6.3222111421739697</v>
+      </c>
+      <c r="AP53">
+        <v>5.9245059225992902</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.7186357206089999</v>
       </c>
@@ -8042,6 +7698,12 @@
       <c r="C54">
         <v>6.0030089999999996</v>
       </c>
+      <c r="D54">
+        <v>1260</v>
+      </c>
+      <c r="E54">
+        <v>6.0189459999999997</v>
+      </c>
       <c r="F54">
         <v>2125</v>
       </c>
@@ -8072,6 +7734,12 @@
       <c r="O54">
         <v>6.2340850000000003</v>
       </c>
+      <c r="P54">
+        <v>3001</v>
+      </c>
+      <c r="Q54">
+        <v>6.6292410000000004</v>
+      </c>
       <c r="S54">
         <v>6.6174783406207203</v>
       </c>
@@ -8120,8 +7788,20 @@
       <c r="AK54">
         <v>6.5028366088710099</v>
       </c>
+      <c r="AM54">
+        <v>6.4273263771287104</v>
+      </c>
+      <c r="AN54">
+        <v>6.36678267562454</v>
+      </c>
+      <c r="AO54">
+        <v>6.2800437087949499</v>
+      </c>
+      <c r="AP54">
+        <v>6.3673117840070903</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4.036270301879</v>
       </c>
@@ -8131,6 +7811,12 @@
       <c r="C55">
         <v>3.5333130000000001</v>
       </c>
+      <c r="D55">
+        <v>1800</v>
+      </c>
+      <c r="E55">
+        <v>4.0777460000000003</v>
+      </c>
       <c r="F55">
         <v>2934</v>
       </c>
@@ -8161,6 +7847,12 @@
       <c r="O55">
         <v>4.765619</v>
       </c>
+      <c r="P55">
+        <v>3506</v>
+      </c>
+      <c r="Q55">
+        <v>5.0640359999999998</v>
+      </c>
       <c r="S55">
         <v>4.0189729574405799</v>
       </c>
@@ -8209,8 +7901,20 @@
       <c r="AK55">
         <v>3.8829848041463002</v>
       </c>
+      <c r="AM55">
+        <v>3.7587184289973101</v>
+      </c>
+      <c r="AN55">
+        <v>3.6253161415486299</v>
+      </c>
+      <c r="AO55">
+        <v>3.76929142460411</v>
+      </c>
+      <c r="AP55">
+        <v>3.7576697770199701</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.4209971105500001</v>
       </c>
@@ -8220,6 +7924,12 @@
       <c r="C56">
         <v>4.9799249999999997</v>
       </c>
+      <c r="D56">
+        <v>1630</v>
+      </c>
+      <c r="E56">
+        <v>4.9403439999999996</v>
+      </c>
       <c r="F56">
         <v>2601</v>
       </c>
@@ -8250,6 +7960,12 @@
       <c r="O56">
         <v>6.1822239999999997</v>
       </c>
+      <c r="P56">
+        <v>7085</v>
+      </c>
+      <c r="Q56">
+        <v>6.4765810000000004</v>
+      </c>
       <c r="S56">
         <v>6.1280557950706598</v>
       </c>
@@ -8298,8 +8014,20 @@
       <c r="AK56">
         <v>5.6041159121513298</v>
       </c>
+      <c r="AM56">
+        <v>5.5301444017832697</v>
+      </c>
+      <c r="AN56">
+        <v>5.5540398961294102</v>
+      </c>
+      <c r="AO56">
+        <v>5.3028643502935502</v>
+      </c>
+      <c r="AP56">
+        <v>5.7471373496458797</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.7281600266279904</v>
       </c>
@@ -8309,6 +8037,12 @@
       <c r="C57">
         <v>5.0121180000000001</v>
       </c>
+      <c r="D57">
+        <v>1728</v>
+      </c>
+      <c r="E57">
+        <v>5.3091600000000003</v>
+      </c>
       <c r="F57">
         <v>2934</v>
       </c>
@@ -8339,6 +8073,12 @@
       <c r="O57">
         <v>5.5073379999999998</v>
       </c>
+      <c r="P57">
+        <v>4886</v>
+      </c>
+      <c r="Q57">
+        <v>5.6000120000000004</v>
+      </c>
       <c r="S57">
         <v>5.4376433423428301</v>
       </c>
@@ -8387,8 +8127,20 @@
       <c r="AK57">
         <v>5.3050210317248103</v>
       </c>
+      <c r="AM57">
+        <v>5.0880035313309397</v>
+      </c>
+      <c r="AN57">
+        <v>5.1879043965696097</v>
+      </c>
+      <c r="AO57">
+        <v>5.2650845444332397</v>
+      </c>
+      <c r="AP57">
+        <v>5.2280723568679504</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.8108758612380003</v>
       </c>
@@ -8398,6 +8150,12 @@
       <c r="C58">
         <v>5.8616479999999997</v>
       </c>
+      <c r="D58">
+        <v>1725</v>
+      </c>
+      <c r="E58">
+        <v>5.8851149999999999</v>
+      </c>
       <c r="F58">
         <v>2842</v>
       </c>
@@ -8428,6 +8186,12 @@
       <c r="O58">
         <v>6.4800279999999999</v>
       </c>
+      <c r="P58">
+        <v>7018</v>
+      </c>
+      <c r="Q58">
+        <v>6.5859800000000002</v>
+      </c>
       <c r="S58">
         <v>6.0186426319613604</v>
       </c>
@@ -8476,8 +8240,20 @@
       <c r="AK58">
         <v>6.04377997560516</v>
       </c>
+      <c r="AM58">
+        <v>5.7385393672981602</v>
+      </c>
+      <c r="AN58">
+        <v>5.7092568065791403</v>
+      </c>
+      <c r="AO58">
+        <v>5.5967810395221704</v>
+      </c>
+      <c r="AP58">
+        <v>5.9475660429677903</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6.5298286047599996</v>
       </c>
@@ -8487,6 +8263,12 @@
       <c r="C59">
         <v>5.6067</v>
       </c>
+      <c r="D59">
+        <v>1655</v>
+      </c>
+      <c r="E59">
+        <v>5.6516640000000002</v>
+      </c>
       <c r="F59">
         <v>2617</v>
       </c>
@@ -8517,6 +8299,12 @@
       <c r="O59">
         <v>5.8571569999999999</v>
       </c>
+      <c r="P59">
+        <v>4667</v>
+      </c>
+      <c r="Q59">
+        <v>6.7059410000000002</v>
+      </c>
       <c r="S59">
         <v>5.9611048938574998</v>
       </c>
@@ -8565,8 +8353,20 @@
       <c r="AK59">
         <v>5.5712308971395501</v>
       </c>
+      <c r="AM59">
+        <v>5.3920390275470904</v>
+      </c>
+      <c r="AN59">
+        <v>5.30622352793623</v>
+      </c>
+      <c r="AO59">
+        <v>5.5103731181371902</v>
+      </c>
+      <c r="AP59">
+        <v>5.2676312943120598</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>7.0072595439859997</v>
       </c>
@@ -8576,6 +8376,12 @@
       <c r="C60">
         <v>4.9876240000000003</v>
       </c>
+      <c r="D60">
+        <v>1443</v>
+      </c>
+      <c r="E60">
+        <v>5.4996660000000004</v>
+      </c>
       <c r="F60">
         <v>2360</v>
       </c>
@@ -8606,6 +8412,12 @@
       <c r="O60">
         <v>6.2517589999999998</v>
       </c>
+      <c r="P60">
+        <v>2572</v>
+      </c>
+      <c r="Q60">
+        <v>7.1973440000000002</v>
+      </c>
       <c r="S60">
         <v>6.6434800194542998</v>
       </c>
@@ -8654,8 +8466,20 @@
       <c r="AK60">
         <v>6.4900410217405504</v>
       </c>
+      <c r="AM60">
+        <v>6.2576177278322804</v>
+      </c>
+      <c r="AN60">
+        <v>6.0651179317733899</v>
+      </c>
+      <c r="AO60">
+        <v>6.3607060794329797</v>
+      </c>
+      <c r="AP60">
+        <v>6.1508050667394496</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.1371242142830003</v>
       </c>
@@ -8665,6 +8489,12 @@
       <c r="C61">
         <v>4.6433039999999997</v>
       </c>
+      <c r="D61">
+        <v>1715</v>
+      </c>
+      <c r="E61">
+        <v>4.7317980000000004</v>
+      </c>
       <c r="F61">
         <v>2739</v>
       </c>
@@ -8695,6 +8525,12 @@
       <c r="O61">
         <v>4.9416710000000004</v>
       </c>
+      <c r="P61">
+        <v>2952</v>
+      </c>
+      <c r="Q61">
+        <v>4.8819970000000001</v>
+      </c>
       <c r="S61">
         <v>5.1025239536572498</v>
       </c>
@@ -8743,8 +8579,20 @@
       <c r="AK61">
         <v>4.8093402591238403</v>
       </c>
+      <c r="AM61">
+        <v>4.8795120991372398</v>
+      </c>
+      <c r="AN61">
+        <v>4.7980569335056096</v>
+      </c>
+      <c r="AO61">
+        <v>4.8651386715729599</v>
+      </c>
+      <c r="AP61">
+        <v>4.7882274178518403</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6.3391947029529998</v>
       </c>
@@ -8754,6 +8602,12 @@
       <c r="C62">
         <v>4.9987849999999998</v>
       </c>
+      <c r="D62">
+        <v>1556</v>
+      </c>
+      <c r="E62">
+        <v>5.6185830000000001</v>
+      </c>
       <c r="F62">
         <v>2650</v>
       </c>
@@ -8784,6 +8638,12 @@
       <c r="O62">
         <v>5.8535719999999998</v>
       </c>
+      <c r="P62">
+        <v>879</v>
+      </c>
+      <c r="Q62">
+        <v>6.0425050000000002</v>
+      </c>
       <c r="S62">
         <v>6.2430305767590104</v>
       </c>
@@ -8832,8 +8692,20 @@
       <c r="AK62">
         <v>5.8308036197717303</v>
       </c>
+      <c r="AM62">
+        <v>5.9210168718567404</v>
+      </c>
+      <c r="AN62">
+        <v>5.4767555355950703</v>
+      </c>
+      <c r="AO62">
+        <v>5.9129258499362196</v>
+      </c>
+      <c r="AP62">
+        <v>5.8095447302466701</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>7.0111105029500003</v>
       </c>
@@ -8843,6 +8715,12 @@
       <c r="C63">
         <v>6.0756600000000001</v>
       </c>
+      <c r="D63">
+        <v>1065</v>
+      </c>
+      <c r="E63">
+        <v>6.3259359999999996</v>
+      </c>
       <c r="F63">
         <v>1708</v>
       </c>
@@ -8873,6 +8751,12 @@
       <c r="O63">
         <v>6.2666370000000002</v>
       </c>
+      <c r="P63">
+        <v>2243</v>
+      </c>
+      <c r="Q63">
+        <v>6.4007149999999999</v>
+      </c>
       <c r="S63">
         <v>7.1297235681815199</v>
       </c>
@@ -8921,8 +8805,20 @@
       <c r="AK63">
         <v>6.1905796609244801</v>
       </c>
+      <c r="AM63">
+        <v>6.2885820201626901</v>
+      </c>
+      <c r="AN63">
+        <v>6.4399038450850004</v>
+      </c>
+      <c r="AO63">
+        <v>5.88472828883096</v>
+      </c>
+      <c r="AP63">
+        <v>6.32001365515465</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5.5951889007929996</v>
       </c>
@@ -8932,6 +8828,12 @@
       <c r="C64">
         <v>5.1777639999999998</v>
       </c>
+      <c r="D64">
+        <v>1683</v>
+      </c>
+      <c r="E64">
+        <v>5.35677</v>
+      </c>
       <c r="F64">
         <v>2824</v>
       </c>
@@ -8962,6 +8864,12 @@
       <c r="O64">
         <v>5.6307770000000001</v>
       </c>
+      <c r="P64">
+        <v>7088</v>
+      </c>
+      <c r="Q64">
+        <v>5.7050650000000003</v>
+      </c>
       <c r="S64">
         <v>5.4971024532932198</v>
       </c>
@@ -9010,8 +8918,20 @@
       <c r="AK64">
         <v>5.3781108723455304</v>
       </c>
+      <c r="AM64">
+        <v>5.0643229919692097</v>
+      </c>
+      <c r="AN64">
+        <v>4.9961703955925296</v>
+      </c>
+      <c r="AO64">
+        <v>5.2072306439873399</v>
+      </c>
+      <c r="AP64">
+        <v>5.1364746463850901</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.163955705397</v>
       </c>
@@ -9021,6 +8941,12 @@
       <c r="C65">
         <v>5.3524929999999999</v>
       </c>
+      <c r="D65">
+        <v>1526</v>
+      </c>
+      <c r="E65">
+        <v>5.6275969999999997</v>
+      </c>
       <c r="F65">
         <v>2300</v>
       </c>
@@ -9051,6 +8977,12 @@
       <c r="O65">
         <v>5.7466350000000004</v>
       </c>
+      <c r="P65">
+        <v>3336</v>
+      </c>
+      <c r="Q65">
+        <v>5.9890350000000003</v>
+      </c>
       <c r="S65">
         <v>5.8419934974242196</v>
       </c>
@@ -9099,8 +9031,20 @@
       <c r="AK65">
         <v>5.8071519274147496</v>
       </c>
+      <c r="AM65">
+        <v>5.4512831279246399</v>
+      </c>
+      <c r="AN65">
+        <v>5.5348362957472199</v>
+      </c>
+      <c r="AO65">
+        <v>5.4044056956168696</v>
+      </c>
+      <c r="AP65">
+        <v>5.6514238525930098</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7.6370871758109899</v>
       </c>
@@ -9110,6 +9054,12 @@
       <c r="C66">
         <v>6.8899439999999998</v>
       </c>
+      <c r="D66">
+        <v>1558</v>
+      </c>
+      <c r="E66">
+        <v>6.8049809999999997</v>
+      </c>
       <c r="F66">
         <v>2644</v>
       </c>
@@ -9140,6 +9090,12 @@
       <c r="O66">
         <v>7.4425160000000004</v>
       </c>
+      <c r="P66">
+        <v>4413</v>
+      </c>
+      <c r="Q66">
+        <v>7.5911090000000003</v>
+      </c>
       <c r="S66">
         <v>7.2867657431684902</v>
       </c>
@@ -9188,8 +9144,20 @@
       <c r="AK66">
         <v>6.7255736982670999</v>
       </c>
+      <c r="AM66">
+        <v>6.3490895071200102</v>
+      </c>
+      <c r="AN66">
+        <v>6.1200178586364498</v>
+      </c>
+      <c r="AO66">
+        <v>6.72576717798934</v>
+      </c>
+      <c r="AP66">
+        <v>6.4524391069608402</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7.0511886486309896</v>
       </c>
@@ -9199,6 +9167,12 @@
       <c r="C67">
         <v>5.2396000000000003</v>
       </c>
+      <c r="D67">
+        <v>1675</v>
+      </c>
+      <c r="E67">
+        <v>6.4305839999999996</v>
+      </c>
       <c r="F67">
         <v>2738</v>
       </c>
@@ -9229,6 +9203,12 @@
       <c r="O67">
         <v>7.1466770000000004</v>
       </c>
+      <c r="P67">
+        <v>3724</v>
+      </c>
+      <c r="Q67">
+        <v>7.1715030000000004</v>
+      </c>
       <c r="S67">
         <v>7.2096128244806899</v>
       </c>
@@ -9277,8 +9257,20 @@
       <c r="AK67">
         <v>6.4904470570647401</v>
       </c>
+      <c r="AM67">
+        <v>6.0446758046750304</v>
+      </c>
+      <c r="AN67">
+        <v>6.0727203214213699</v>
+      </c>
+      <c r="AO67">
+        <v>5.7730879218030804</v>
+      </c>
+      <c r="AP67">
+        <v>6.2327629749367004</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4.5230177965289897</v>
       </c>
@@ -9288,6 +9280,12 @@
       <c r="C68">
         <v>4.0906450000000003</v>
       </c>
+      <c r="D68">
+        <v>1478</v>
+      </c>
+      <c r="E68">
+        <v>4.2778609999999997</v>
+      </c>
       <c r="F68">
         <v>2534</v>
       </c>
@@ -9318,6 +9316,12 @@
       <c r="O68">
         <v>4.487546</v>
       </c>
+      <c r="P68">
+        <v>2492</v>
+      </c>
+      <c r="Q68">
+        <v>4.6358860000000002</v>
+      </c>
       <c r="S68">
         <v>4.4628773954021499</v>
       </c>
@@ -9366,8 +9370,20 @@
       <c r="AK68">
         <v>4.2406701575242502</v>
       </c>
+      <c r="AM68">
+        <v>4.1581906305257599</v>
+      </c>
+      <c r="AN68">
+        <v>4.1408459000404196</v>
+      </c>
+      <c r="AO68">
+        <v>4.1822524425380596</v>
+      </c>
+      <c r="AP68">
+        <v>4.1720713885095702</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5.4940324943289998</v>
       </c>
@@ -9377,6 +9393,12 @@
       <c r="C69">
         <v>4.6329440000000002</v>
       </c>
+      <c r="D69">
+        <v>1292</v>
+      </c>
+      <c r="E69">
+        <v>4.8895210000000002</v>
+      </c>
       <c r="F69">
         <v>2321</v>
       </c>
@@ -9407,6 +9429,12 @@
       <c r="O69">
         <v>5.2997889999999996</v>
       </c>
+      <c r="P69">
+        <v>3897</v>
+      </c>
+      <c r="Q69">
+        <v>5.4358870000000001</v>
+      </c>
       <c r="S69">
         <v>5.3581622780101501</v>
       </c>
@@ -9455,8 +9483,20 @@
       <c r="AK69">
         <v>5.0113646509155698</v>
       </c>
+      <c r="AM69">
+        <v>4.9075683517979902</v>
+      </c>
+      <c r="AN69">
+        <v>4.9390941830212904</v>
+      </c>
+      <c r="AO69">
+        <v>4.9543823305486097</v>
+      </c>
+      <c r="AP69">
+        <v>4.9954841679324202</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.8055936076199997</v>
       </c>
@@ -9466,6 +9506,12 @@
       <c r="C70">
         <v>5.8355839999999999</v>
       </c>
+      <c r="D70">
+        <v>1748</v>
+      </c>
+      <c r="E70">
+        <v>6.0334260000000004</v>
+      </c>
       <c r="F70">
         <v>3151</v>
       </c>
@@ -9496,6 +9542,12 @@
       <c r="O70">
         <v>6.6938510000000004</v>
       </c>
+      <c r="P70">
+        <v>3901</v>
+      </c>
+      <c r="Q70">
+        <v>6.8180370000000003</v>
+      </c>
       <c r="S70">
         <v>6.7523229327735903</v>
       </c>
@@ -9544,8 +9596,20 @@
       <c r="AK70">
         <v>6.5519430312964504</v>
       </c>
+      <c r="AM70">
+        <v>6.0423196305596996</v>
+      </c>
+      <c r="AN70">
+        <v>6.0236778652835703</v>
+      </c>
+      <c r="AO70">
+        <v>6.0753936602119696</v>
+      </c>
+      <c r="AP70">
+        <v>6.2711794863398396</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4.7893059243909999</v>
       </c>
@@ -9555,6 +9619,12 @@
       <c r="C71">
         <v>4.7740600000000004</v>
       </c>
+      <c r="D71">
+        <v>1737</v>
+      </c>
+      <c r="E71">
+        <v>5.258845</v>
+      </c>
       <c r="F71">
         <v>2825</v>
       </c>
@@ -9585,6 +9655,12 @@
       <c r="O71">
         <v>5.341513</v>
       </c>
+      <c r="P71">
+        <v>3072</v>
+      </c>
+      <c r="Q71">
+        <v>4.6632540000000002</v>
+      </c>
       <c r="S71">
         <v>4.4957295949363196</v>
       </c>
@@ -9633,8 +9709,20 @@
       <c r="AK71">
         <v>4.3555376043354999</v>
       </c>
+      <c r="AM71">
+        <v>4.2640038741255299</v>
+      </c>
+      <c r="AN71">
+        <v>4.30464860942008</v>
+      </c>
+      <c r="AO71">
+        <v>4.4074356430504</v>
+      </c>
+      <c r="AP71">
+        <v>4.4107913076691698</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5.0981983523860004</v>
       </c>
@@ -9644,6 +9732,12 @@
       <c r="C72">
         <v>4.4515750000000001</v>
       </c>
+      <c r="D72">
+        <v>1663</v>
+      </c>
+      <c r="E72">
+        <v>4.7163940000000002</v>
+      </c>
       <c r="F72">
         <v>3100</v>
       </c>
@@ -9674,6 +9768,12 @@
       <c r="O72">
         <v>5.022621</v>
       </c>
+      <c r="P72">
+        <v>4813</v>
+      </c>
+      <c r="Q72">
+        <v>5.1746790000000003</v>
+      </c>
       <c r="S72">
         <v>4.7332970583712299</v>
       </c>
@@ -9722,8 +9822,20 @@
       <c r="AK72">
         <v>4.5146842378432597</v>
       </c>
+      <c r="AM72">
+        <v>4.3947031253245799</v>
+      </c>
+      <c r="AN72">
+        <v>4.4081178034559203</v>
+      </c>
+      <c r="AO72">
+        <v>4.5884834752421497</v>
+      </c>
+      <c r="AP72">
+        <v>4.5487103698170799</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6.0952644389239996</v>
       </c>
@@ -9733,6 +9845,12 @@
       <c r="C73">
         <v>4.8451599999999999</v>
       </c>
+      <c r="D73">
+        <v>1451</v>
+      </c>
+      <c r="E73">
+        <v>4.9937940000000003</v>
+      </c>
       <c r="F73">
         <v>2453</v>
       </c>
@@ -9763,6 +9881,12 @@
       <c r="O73">
         <v>5.1080990000000002</v>
       </c>
+      <c r="P73">
+        <v>2202</v>
+      </c>
+      <c r="Q73">
+        <v>5.206842</v>
+      </c>
       <c r="S73">
         <v>5.6012086325207804</v>
       </c>
@@ -9811,8 +9935,20 @@
       <c r="AK73">
         <v>5.1426048637447899</v>
       </c>
+      <c r="AM73">
+        <v>5.1740264861338696</v>
+      </c>
+      <c r="AN73">
+        <v>5.02708900663285</v>
+      </c>
+      <c r="AO73">
+        <v>4.9724880259665998</v>
+      </c>
+      <c r="AP73">
+        <v>4.9550422124617599</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6.4013956175539999</v>
       </c>
@@ -9822,6 +9958,12 @@
       <c r="C74">
         <v>4.9465199999999996</v>
       </c>
+      <c r="D74">
+        <v>1657</v>
+      </c>
+      <c r="E74">
+        <v>5.4526380000000003</v>
+      </c>
       <c r="F74">
         <v>2692</v>
       </c>
@@ -9852,6 +9994,12 @@
       <c r="O74">
         <v>5.4067660000000002</v>
       </c>
+      <c r="P74">
+        <v>5122</v>
+      </c>
+      <c r="Q74">
+        <v>6.0961800000000004</v>
+      </c>
       <c r="S74">
         <v>5.9423375558600604</v>
       </c>
@@ -9900,8 +10048,20 @@
       <c r="AK74">
         <v>5.7010098269650804</v>
       </c>
+      <c r="AM74">
+        <v>5.39351293489376</v>
+      </c>
+      <c r="AN74">
+        <v>5.2916374772963497</v>
+      </c>
+      <c r="AO74">
+        <v>5.00712494908369</v>
+      </c>
+      <c r="AP74">
+        <v>5.02312734940414</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.386728883505</v>
       </c>
@@ -9911,6 +10071,12 @@
       <c r="C75">
         <v>2.043088</v>
       </c>
+      <c r="D75">
+        <v>1892</v>
+      </c>
+      <c r="E75">
+        <v>2.1636449999999998</v>
+      </c>
       <c r="F75">
         <v>3077</v>
       </c>
@@ -9941,6 +10107,12 @@
       <c r="O75">
         <v>2.2848280000000001</v>
       </c>
+      <c r="P75">
+        <v>2612</v>
+      </c>
+      <c r="Q75">
+        <v>2.3756719999999998</v>
+      </c>
       <c r="S75">
         <v>2.2868716606317898</v>
       </c>
@@ -9989,8 +10161,20 @@
       <c r="AK75">
         <v>2.1902453022561099</v>
       </c>
+      <c r="AM75">
+        <v>2.1273778449657801</v>
+      </c>
+      <c r="AN75">
+        <v>2.1477284444890601</v>
+      </c>
+      <c r="AO75">
+        <v>2.2691554926629398</v>
+      </c>
+      <c r="AP75">
+        <v>2.1785190281100499</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4.7812698411909897</v>
       </c>
@@ -10000,6 +10184,12 @@
       <c r="C76">
         <v>4.2777779999999996</v>
       </c>
+      <c r="D76">
+        <v>1350</v>
+      </c>
+      <c r="E76">
+        <v>4.2328289999999997</v>
+      </c>
       <c r="F76">
         <v>1978</v>
       </c>
@@ -10030,6 +10220,12 @@
       <c r="O76">
         <v>5.3303830000000003</v>
       </c>
+      <c r="P76">
+        <v>2411</v>
+      </c>
+      <c r="Q76">
+        <v>4.4822240000000004</v>
+      </c>
       <c r="S76">
         <v>4.2701439603147904</v>
       </c>
@@ -10078,8 +10274,20 @@
       <c r="AK76">
         <v>4.6054465567529599</v>
       </c>
+      <c r="AM76">
+        <v>4.0836625217789697</v>
+      </c>
+      <c r="AN76">
+        <v>4.1873337430543502</v>
+      </c>
+      <c r="AO76">
+        <v>4.2188583550715704</v>
+      </c>
+      <c r="AP76">
+        <v>4.36803362225037</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5.9273480109509897</v>
       </c>
@@ -10089,6 +10297,12 @@
       <c r="C77">
         <v>5.6132150000000003</v>
       </c>
+      <c r="D77">
+        <v>1442</v>
+      </c>
+      <c r="E77">
+        <v>5.5224460000000004</v>
+      </c>
       <c r="F77">
         <v>2180</v>
       </c>
@@ -10119,6 +10333,12 @@
       <c r="O77">
         <v>5.9666230000000002</v>
       </c>
+      <c r="P77">
+        <v>3438</v>
+      </c>
+      <c r="Q77">
+        <v>6.3683240000000003</v>
+      </c>
       <c r="S77">
         <v>5.7603301230329098</v>
       </c>
@@ -10167,8 +10387,20 @@
       <c r="AK77">
         <v>5.7680818975206503</v>
       </c>
+      <c r="AM77">
+        <v>5.3346631133951004</v>
+      </c>
+      <c r="AN77">
+        <v>5.4329778411335301</v>
+      </c>
+      <c r="AO77">
+        <v>5.5192656553276196</v>
+      </c>
+      <c r="AP77">
+        <v>5.4453830359608801</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.5136948378839996</v>
       </c>
@@ -10178,6 +10410,12 @@
       <c r="C78">
         <v>5.9464199999999998</v>
       </c>
+      <c r="D78">
+        <v>1360</v>
+      </c>
+      <c r="E78">
+        <v>5.9676720000000003</v>
+      </c>
       <c r="F78">
         <v>2135</v>
       </c>
@@ -10208,6 +10446,12 @@
       <c r="O78">
         <v>7.3595220000000001</v>
       </c>
+      <c r="P78">
+        <v>3967</v>
+      </c>
+      <c r="Q78">
+        <v>7.3664550000000002</v>
+      </c>
       <c r="S78">
         <v>6.9831637318710502</v>
       </c>
@@ -10256,8 +10500,20 @@
       <c r="AK78">
         <v>6.3622799482591601</v>
       </c>
+      <c r="AM78">
+        <v>6.5346416492251</v>
+      </c>
+      <c r="AN78">
+        <v>6.58859820005571</v>
+      </c>
+      <c r="AO78">
+        <v>6.1013039371448796</v>
+      </c>
+      <c r="AP78">
+        <v>6.3243617831945098</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4.8354063161439997</v>
       </c>
@@ -10267,6 +10523,12 @@
       <c r="C79">
         <v>4.22689</v>
       </c>
+      <c r="D79">
+        <v>1315</v>
+      </c>
+      <c r="E79">
+        <v>4.3973000000000004</v>
+      </c>
       <c r="F79">
         <v>1995</v>
       </c>
@@ -10297,6 +10559,12 @@
       <c r="O79">
         <v>4.7252919999999996</v>
       </c>
+      <c r="P79">
+        <v>1700</v>
+      </c>
+      <c r="Q79">
+        <v>4.7862349999999996</v>
+      </c>
       <c r="S79">
         <v>4.6000847467050203</v>
       </c>
@@ -10345,8 +10613,20 @@
       <c r="AK79">
         <v>4.4753854841184602</v>
       </c>
+      <c r="AM79">
+        <v>4.4081181726176899</v>
+      </c>
+      <c r="AN79">
+        <v>4.3862155906875504</v>
+      </c>
+      <c r="AO79">
+        <v>4.3611431005941697</v>
+      </c>
+      <c r="AP79">
+        <v>4.4478379209775802</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4.152594704587</v>
       </c>
@@ -10356,6 +10636,12 @@
       <c r="C80">
         <v>3.8665379999999998</v>
       </c>
+      <c r="D80">
+        <v>1182</v>
+      </c>
+      <c r="E80">
+        <v>3.915416</v>
+      </c>
       <c r="F80">
         <v>1797</v>
       </c>
@@ -10386,6 +10672,12 @@
       <c r="O80">
         <v>3.8664719999999999</v>
       </c>
+      <c r="P80">
+        <v>3878</v>
+      </c>
+      <c r="Q80">
+        <v>4.0229670000000004</v>
+      </c>
       <c r="S80">
         <v>4.0168093642468898</v>
       </c>
@@ -10434,8 +10726,20 @@
       <c r="AK80">
         <v>3.8663302773602002</v>
       </c>
+      <c r="AM80">
+        <v>3.8143681889382299</v>
+      </c>
+      <c r="AN80">
+        <v>3.86214436875898</v>
+      </c>
+      <c r="AO80">
+        <v>3.8390521653307799</v>
+      </c>
+      <c r="AP80">
+        <v>3.8084346809919398</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4.1519078313559996</v>
       </c>
@@ -10445,6 +10749,12 @@
       <c r="C81">
         <v>3.441989</v>
       </c>
+      <c r="D81">
+        <v>1495</v>
+      </c>
+      <c r="E81">
+        <v>3.6277509999999999</v>
+      </c>
       <c r="F81">
         <v>2541</v>
       </c>
@@ -10475,6 +10785,12 @@
       <c r="O81">
         <v>4.1036929999999998</v>
       </c>
+      <c r="P81">
+        <v>2626</v>
+      </c>
+      <c r="Q81">
+        <v>4.0973660000000001</v>
+      </c>
       <c r="S81">
         <v>4.0338574394912001</v>
       </c>
@@ -10523,8 +10839,20 @@
       <c r="AK81">
         <v>3.8693175723731099</v>
       </c>
+      <c r="AM81">
+        <v>3.66410883043977</v>
+      </c>
+      <c r="AN81">
+        <v>3.76013326410287</v>
+      </c>
+      <c r="AO81">
+        <v>3.8458731022186399</v>
+      </c>
+      <c r="AP81">
+        <v>3.80123478061883</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>6.9953807535330004</v>
       </c>
@@ -10534,6 +10862,12 @@
       <c r="C82">
         <v>6.1042399999999999</v>
       </c>
+      <c r="D82">
+        <v>1111</v>
+      </c>
+      <c r="E82">
+        <v>6.2742969999999998</v>
+      </c>
       <c r="F82">
         <v>2040</v>
       </c>
@@ -10564,6 +10898,12 @@
       <c r="O82">
         <v>6.7220570000000004</v>
       </c>
+      <c r="P82">
+        <v>3124</v>
+      </c>
+      <c r="Q82">
+        <v>6.4689370000000004</v>
+      </c>
       <c r="S82">
         <v>6.2665373547727601</v>
       </c>
@@ -10612,8 +10952,20 @@
       <c r="AK82">
         <v>5.9954354740255997</v>
       </c>
+      <c r="AM82">
+        <v>5.6685017047628996</v>
+      </c>
+      <c r="AN82">
+        <v>5.68460159528974</v>
+      </c>
+      <c r="AO82">
+        <v>5.9559498511495601</v>
+      </c>
+      <c r="AP82">
+        <v>6.0847684283888999</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5.2004396037209997</v>
       </c>
@@ -10623,6 +10975,12 @@
       <c r="C83">
         <v>4.8621150000000002</v>
       </c>
+      <c r="D83">
+        <v>1584</v>
+      </c>
+      <c r="E83">
+        <v>4.9187649999999996</v>
+      </c>
       <c r="F83">
         <v>2827</v>
       </c>
@@ -10653,6 +11011,12 @@
       <c r="O83">
         <v>5.1041970000000001</v>
       </c>
+      <c r="P83">
+        <v>5351</v>
+      </c>
+      <c r="Q83">
+        <v>5.1698190000000004</v>
+      </c>
       <c r="S83">
         <v>5.1276822034807896</v>
       </c>
@@ -10701,8 +11065,20 @@
       <c r="AK83">
         <v>4.8912858559471699</v>
       </c>
+      <c r="AM83">
+        <v>4.8252846904110198</v>
+      </c>
+      <c r="AN83">
+        <v>4.88776169186613</v>
+      </c>
+      <c r="AO83">
+        <v>4.9845395339863598</v>
+      </c>
+      <c r="AP83">
+        <v>4.9042431937941098</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6.8566620202220001</v>
       </c>
@@ -10712,6 +11088,12 @@
       <c r="C84">
         <v>5.7534179999999999</v>
       </c>
+      <c r="D84">
+        <v>1444</v>
+      </c>
+      <c r="E84">
+        <v>6.2003849999999998</v>
+      </c>
       <c r="F84">
         <v>2286</v>
       </c>
@@ -10742,6 +11124,12 @@
       <c r="O84">
         <v>6.821847</v>
       </c>
+      <c r="P84">
+        <v>2159</v>
+      </c>
+      <c r="Q84">
+        <v>6.7763150000000003</v>
+      </c>
       <c r="S84">
         <v>6.7327438437857401</v>
       </c>
@@ -10790,8 +11178,20 @@
       <c r="AK84">
         <v>5.7755123412455696</v>
       </c>
+      <c r="AM84">
+        <v>5.5101474154799002</v>
+      </c>
+      <c r="AN84">
+        <v>5.0364680073866896</v>
+      </c>
+      <c r="AO84">
+        <v>4.67113432679316</v>
+      </c>
+      <c r="AP84">
+        <v>5.33740200858366</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.475902034313</v>
       </c>
@@ -10801,6 +11201,12 @@
       <c r="C85">
         <v>2.1092420000000001</v>
       </c>
+      <c r="D85">
+        <v>1916</v>
+      </c>
+      <c r="E85">
+        <v>2.0964520000000002</v>
+      </c>
       <c r="F85">
         <v>3212</v>
       </c>
@@ -10831,6 +11237,12 @@
       <c r="O85">
         <v>2.5511819999999998</v>
       </c>
+      <c r="P85">
+        <v>4157</v>
+      </c>
+      <c r="Q85">
+        <v>2.4903080000000002</v>
+      </c>
       <c r="S85">
         <v>2.5506473493124302</v>
       </c>
@@ -10879,8 +11291,20 @@
       <c r="AK85">
         <v>2.2546351708029002</v>
       </c>
+      <c r="AM85">
+        <v>2.0362263765558799</v>
+      </c>
+      <c r="AN85">
+        <v>2.0775770749106002</v>
+      </c>
+      <c r="AO85">
+        <v>2.0766790826783899</v>
+      </c>
+      <c r="AP85">
+        <v>2.2993337594221299</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2.0358978704899999</v>
       </c>
@@ -10890,6 +11314,12 @@
       <c r="C86">
         <v>1.961824</v>
       </c>
+      <c r="D86">
+        <v>1796</v>
+      </c>
+      <c r="E86">
+        <v>2.0290490000000001</v>
+      </c>
       <c r="F86">
         <v>2753</v>
       </c>
@@ -10920,6 +11350,12 @@
       <c r="O86">
         <v>2.0591400000000002</v>
       </c>
+      <c r="P86">
+        <v>3143</v>
+      </c>
+      <c r="Q86">
+        <v>2.0296439999999998</v>
+      </c>
       <c r="S86">
         <v>2.0007867373957802</v>
       </c>
@@ -10968,8 +11404,20 @@
       <c r="AK86">
         <v>1.92421148271591</v>
       </c>
+      <c r="AM86">
+        <v>1.81395875327685</v>
+      </c>
+      <c r="AN86">
+        <v>1.8933329417319</v>
+      </c>
+      <c r="AO86">
+        <v>1.9003399072748099</v>
+      </c>
+      <c r="AP86">
+        <v>1.8736385883933599</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2.3460550305829999</v>
       </c>
@@ -10979,6 +11427,12 @@
       <c r="C87">
         <v>2.2268940000000002</v>
       </c>
+      <c r="D87">
+        <v>1539</v>
+      </c>
+      <c r="E87">
+        <v>2.2764120000000001</v>
+      </c>
       <c r="F87">
         <v>2779</v>
       </c>
@@ -11009,6 +11463,12 @@
       <c r="O87">
         <v>2.3860549999999998</v>
       </c>
+      <c r="P87">
+        <v>2711</v>
+      </c>
+      <c r="Q87">
+        <v>2.4290430000000001</v>
+      </c>
       <c r="S87">
         <v>2.3528377933706399</v>
       </c>
@@ -11057,8 +11517,20 @@
       <c r="AK87">
         <v>2.2706164844749601</v>
       </c>
+      <c r="AM87">
+        <v>2.2789167675747799</v>
+      </c>
+      <c r="AN87">
+        <v>2.2710816980284698</v>
+      </c>
+      <c r="AO87">
+        <v>2.2456471388509902</v>
+      </c>
+      <c r="AP87">
+        <v>2.2411453251184899</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5.7595699684900001</v>
       </c>
@@ -11068,6 +11540,12 @@
       <c r="C88">
         <v>4.8166570000000002</v>
       </c>
+      <c r="D88">
+        <v>1647</v>
+      </c>
+      <c r="E88">
+        <v>4.912045</v>
+      </c>
       <c r="F88">
         <v>2384</v>
       </c>
@@ -11098,6 +11576,12 @@
       <c r="O88">
         <v>5.066109</v>
       </c>
+      <c r="P88">
+        <v>2544</v>
+      </c>
+      <c r="Q88">
+        <v>5.1230159999999998</v>
+      </c>
       <c r="S88">
         <v>5.8465306158320098</v>
       </c>
@@ -11146,8 +11630,20 @@
       <c r="AK88">
         <v>5.2585353550287302</v>
       </c>
+      <c r="AM88">
+        <v>5.4218911044075302</v>
+      </c>
+      <c r="AN88">
+        <v>5.2662605263108802</v>
+      </c>
+      <c r="AO88">
+        <v>4.7013099605623401</v>
+      </c>
+      <c r="AP88">
+        <v>4.96870015769756</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4.7105139926139996</v>
       </c>
@@ -11157,6 +11653,12 @@
       <c r="C89">
         <v>3.9198940000000002</v>
       </c>
+      <c r="D89">
+        <v>1650</v>
+      </c>
+      <c r="E89">
+        <v>3.9422839999999999</v>
+      </c>
       <c r="F89">
         <v>2432</v>
       </c>
@@ -11187,6 +11689,12 @@
       <c r="O89">
         <v>4.0658110000000001</v>
       </c>
+      <c r="P89">
+        <v>2840</v>
+      </c>
+      <c r="Q89">
+        <v>4.1970700000000001</v>
+      </c>
       <c r="S89">
         <v>4.8537308326062902</v>
       </c>
@@ -11235,8 +11743,20 @@
       <c r="AK89">
         <v>4.4892350197024502</v>
       </c>
+      <c r="AM89">
+        <v>4.5017404560588599</v>
+      </c>
+      <c r="AN89">
+        <v>4.4601982780126903</v>
+      </c>
+      <c r="AO89">
+        <v>4.3594233370040003</v>
+      </c>
+      <c r="AP89">
+        <v>4.2202100350969998</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3.7540615519789902</v>
       </c>
@@ -11246,6 +11766,12 @@
       <c r="C90">
         <v>3.0521919999999998</v>
       </c>
+      <c r="D90">
+        <v>1465</v>
+      </c>
+      <c r="E90">
+        <v>3.181711</v>
+      </c>
       <c r="F90">
         <v>2461</v>
       </c>
@@ -11276,6 +11802,12 @@
       <c r="O90">
         <v>3.1401289999999999</v>
       </c>
+      <c r="P90">
+        <v>5068</v>
+      </c>
+      <c r="Q90">
+        <v>3.4293559999999998</v>
+      </c>
       <c r="S90">
         <v>3.5152852063379498</v>
       </c>
@@ -11324,8 +11856,20 @@
       <c r="AK90">
         <v>3.2788280791173099</v>
       </c>
+      <c r="AM90">
+        <v>3.1722911734114998</v>
+      </c>
+      <c r="AN90">
+        <v>3.1161009696375399</v>
+      </c>
+      <c r="AO90">
+        <v>3.2017710026078898</v>
+      </c>
+      <c r="AP90">
+        <v>3.2317871207173101</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5.8651310968799999</v>
       </c>
@@ -11335,6 +11879,12 @@
       <c r="C91">
         <v>5.3873790000000001</v>
       </c>
+      <c r="D91">
+        <v>1581</v>
+      </c>
+      <c r="E91">
+        <v>5.4634710000000002</v>
+      </c>
       <c r="F91">
         <v>2522</v>
       </c>
@@ -11365,6 +11915,12 @@
       <c r="O91">
         <v>5.9506100000000002</v>
       </c>
+      <c r="P91">
+        <v>4855</v>
+      </c>
+      <c r="Q91">
+        <v>5.9846250000000003</v>
+      </c>
       <c r="S91">
         <v>5.8931725229837699</v>
       </c>
@@ -11413,8 +11969,20 @@
       <c r="AK91">
         <v>5.1590285985885602</v>
       </c>
+      <c r="AM91">
+        <v>5.2426166543824397</v>
+      </c>
+      <c r="AN91">
+        <v>5.2026435670165796</v>
+      </c>
+      <c r="AO91">
+        <v>5.0477290859733897</v>
+      </c>
+      <c r="AP91">
+        <v>4.9684283670682996</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5.8002029699639897</v>
       </c>
@@ -11424,6 +11992,12 @@
       <c r="C92">
         <v>4.5763249999999998</v>
       </c>
+      <c r="D92">
+        <v>1843</v>
+      </c>
+      <c r="E92">
+        <v>4.7028720000000002</v>
+      </c>
       <c r="F92">
         <v>3085</v>
       </c>
@@ -11454,6 +12028,12 @@
       <c r="O92">
         <v>4.7125979999999998</v>
       </c>
+      <c r="P92">
+        <v>2529</v>
+      </c>
+      <c r="Q92">
+        <v>4.7493410000000003</v>
+      </c>
       <c r="S92">
         <v>5.8107269609953898</v>
       </c>
@@ -11502,8 +12082,20 @@
       <c r="AK92">
         <v>5.2335776927245901</v>
       </c>
+      <c r="AM92">
+        <v>5.4356791851001303</v>
+      </c>
+      <c r="AN92">
+        <v>5.26761071055145</v>
+      </c>
+      <c r="AO92">
+        <v>5.1306006072573496</v>
+      </c>
+      <c r="AP92">
+        <v>4.9091495256158799</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>7.3981876549189902</v>
       </c>
@@ -11513,6 +12105,12 @@
       <c r="C93">
         <v>5.6528530000000003</v>
       </c>
+      <c r="D93">
+        <v>1355</v>
+      </c>
+      <c r="E93">
+        <v>6.8540130000000001</v>
+      </c>
       <c r="F93">
         <v>2033</v>
       </c>
@@ -11543,6 +12141,12 @@
       <c r="O93">
         <v>7.5388919999999997</v>
       </c>
+      <c r="P93">
+        <v>4673</v>
+      </c>
+      <c r="Q93">
+        <v>7.555504</v>
+      </c>
       <c r="S93">
         <v>7.0451448214326797</v>
       </c>
@@ -11591,8 +12195,20 @@
       <c r="AK93">
         <v>6.3363376227888404</v>
       </c>
+      <c r="AM93">
+        <v>6.1230319112741602</v>
+      </c>
+      <c r="AN93">
+        <v>6.5234352555906003</v>
+      </c>
+      <c r="AO93">
+        <v>5.4651173581073396</v>
+      </c>
+      <c r="AP93">
+        <v>6.4435170621820301</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2.4960680874649999</v>
       </c>
@@ -11602,6 +12218,12 @@
       <c r="C94">
         <v>2.353755</v>
       </c>
+      <c r="D94">
+        <v>1379</v>
+      </c>
+      <c r="E94">
+        <v>2.2476790000000002</v>
+      </c>
       <c r="F94">
         <v>2081</v>
       </c>
@@ -11632,6 +12254,12 @@
       <c r="O94">
         <v>2.4234119999999999</v>
       </c>
+      <c r="P94">
+        <v>2568</v>
+      </c>
+      <c r="Q94">
+        <v>2.3775430000000002</v>
+      </c>
       <c r="S94">
         <v>2.4255493443813201</v>
       </c>
@@ -11680,8 +12308,20 @@
       <c r="AK94">
         <v>2.34967598724152</v>
       </c>
+      <c r="AM94">
+        <v>2.1978834985555999</v>
+      </c>
+      <c r="AN94">
+        <v>2.1903596995941799</v>
+      </c>
+      <c r="AO94">
+        <v>2.26254091904095</v>
+      </c>
+      <c r="AP94">
+        <v>2.2862407429056102</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3.927921381684</v>
       </c>
@@ -11691,6 +12331,12 @@
       <c r="C95">
         <v>3.6175130000000002</v>
       </c>
+      <c r="D95">
+        <v>1741</v>
+      </c>
+      <c r="E95">
+        <v>3.9040550000000001</v>
+      </c>
       <c r="F95">
         <v>2643</v>
       </c>
@@ -11721,6 +12367,12 @@
       <c r="O95">
         <v>4.1722970000000004</v>
       </c>
+      <c r="P95">
+        <v>3962</v>
+      </c>
+      <c r="Q95">
+        <v>4.1610509999999996</v>
+      </c>
       <c r="S95">
         <v>3.8923494460101802</v>
       </c>
@@ -11769,8 +12421,20 @@
       <c r="AK95">
         <v>3.7221073393012301</v>
       </c>
+      <c r="AM95">
+        <v>3.49018459390749</v>
+      </c>
+      <c r="AN95">
+        <v>3.5648132621370898</v>
+      </c>
+      <c r="AO95">
+        <v>3.6021818821155498</v>
+      </c>
+      <c r="AP95">
+        <v>3.7221842546565198</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5.6003531208349999</v>
       </c>
@@ -11780,6 +12444,12 @@
       <c r="C96">
         <v>4.0561920000000002</v>
       </c>
+      <c r="D96">
+        <v>1830</v>
+      </c>
+      <c r="E96">
+        <v>4.9142999999999999</v>
+      </c>
       <c r="F96">
         <v>2741</v>
       </c>
@@ -11810,6 +12480,12 @@
       <c r="O96">
         <v>5.1931180000000001</v>
       </c>
+      <c r="P96">
+        <v>3176</v>
+      </c>
+      <c r="Q96">
+        <v>5.4048179999999997</v>
+      </c>
       <c r="S96">
         <v>5.31583094126744</v>
       </c>
@@ -11858,8 +12534,20 @@
       <c r="AK96">
         <v>4.9982745065576601</v>
       </c>
+      <c r="AM96">
+        <v>4.5689117381092297</v>
+      </c>
+      <c r="AN96">
+        <v>5.0553954076200904</v>
+      </c>
+      <c r="AO96">
+        <v>4.6683749191079604</v>
+      </c>
+      <c r="AP96">
+        <v>4.6578730388796803</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2.6015959969189999</v>
       </c>
@@ -11869,6 +12557,12 @@
       <c r="C97">
         <v>2.2052369999999999</v>
       </c>
+      <c r="D97">
+        <v>1741</v>
+      </c>
+      <c r="E97">
+        <v>2.3339270000000001</v>
+      </c>
       <c r="F97">
         <v>3009</v>
       </c>
@@ -11899,6 +12593,12 @@
       <c r="O97">
         <v>2.5903209999999999</v>
       </c>
+      <c r="P97">
+        <v>2371</v>
+      </c>
+      <c r="Q97">
+        <v>2.7152569999999998</v>
+      </c>
       <c r="S97">
         <v>2.60112587352282</v>
       </c>
@@ -11947,8 +12647,20 @@
       <c r="AK97">
         <v>2.4253042216908698</v>
       </c>
+      <c r="AM97">
+        <v>2.27215759002187</v>
+      </c>
+      <c r="AN97">
+        <v>2.29504944452759</v>
+      </c>
+      <c r="AO97">
+        <v>2.4096713753282599</v>
+      </c>
+      <c r="AP97">
+        <v>2.34699943216203</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4.53697974375799</v>
       </c>
@@ -11958,6 +12670,12 @@
       <c r="C98">
         <v>3.667106</v>
       </c>
+      <c r="D98">
+        <v>1375</v>
+      </c>
+      <c r="E98">
+        <v>3.8734739999999999</v>
+      </c>
       <c r="F98">
         <v>2131</v>
       </c>
@@ -11988,6 +12706,12 @@
       <c r="O98">
         <v>4.3133710000000001</v>
       </c>
+      <c r="P98">
+        <v>2756</v>
+      </c>
+      <c r="Q98">
+        <v>4.4531400000000003</v>
+      </c>
       <c r="S98">
         <v>4.4996682658025096</v>
       </c>
@@ -12036,8 +12760,20 @@
       <c r="AK98">
         <v>3.83442313655853</v>
       </c>
+      <c r="AM98">
+        <v>3.98773878350779</v>
+      </c>
+      <c r="AN98">
+        <v>3.9950300249608102</v>
+      </c>
+      <c r="AO98">
+        <v>3.8034178047121499</v>
+      </c>
+      <c r="AP98">
+        <v>3.9503904427382599</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>7.1069521161629998</v>
       </c>
@@ -12047,6 +12783,12 @@
       <c r="C99">
         <v>6.0228210000000004</v>
       </c>
+      <c r="D99">
+        <v>1079</v>
+      </c>
+      <c r="E99">
+        <v>6.4807059999999996</v>
+      </c>
       <c r="F99">
         <v>1665</v>
       </c>
@@ -12077,6 +12819,12 @@
       <c r="O99">
         <v>7.1671100000000001</v>
       </c>
+      <c r="P99">
+        <v>1742</v>
+      </c>
+      <c r="Q99">
+        <v>6.7374510000000001</v>
+      </c>
       <c r="S99">
         <v>6.8943261050523299</v>
       </c>
@@ -12125,8 +12873,20 @@
       <c r="AK99">
         <v>5.7700357299652296</v>
       </c>
+      <c r="AM99">
+        <v>5.0780142432189201</v>
+      </c>
+      <c r="AN99">
+        <v>5.8147234750316104</v>
+      </c>
+      <c r="AO99">
+        <v>5.4252851399638997</v>
+      </c>
+      <c r="AP99">
+        <v>5.4581635941342403</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4.9920998812019999</v>
       </c>
@@ -12136,6 +12896,12 @@
       <c r="C100">
         <v>4.6429080000000003</v>
       </c>
+      <c r="D100">
+        <v>1580</v>
+      </c>
+      <c r="E100">
+        <v>4.6399229999999996</v>
+      </c>
       <c r="F100">
         <v>2471</v>
       </c>
@@ -12166,6 +12932,12 @@
       <c r="O100">
         <v>5.313129</v>
       </c>
+      <c r="P100">
+        <v>8656</v>
+      </c>
+      <c r="Q100">
+        <v>5.3409940000000002</v>
+      </c>
       <c r="S100">
         <v>4.7041408305236398</v>
       </c>
@@ -12214,8 +12986,20 @@
       <c r="AK100">
         <v>4.2872940244271502</v>
       </c>
+      <c r="AM100">
+        <v>4.0091291008979102</v>
+      </c>
+      <c r="AN100">
+        <v>4.3358348982844497</v>
+      </c>
+      <c r="AO100">
+        <v>4.1004111185962602</v>
+      </c>
+      <c r="AP100">
+        <v>4.1875391060739702</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4.835288249215</v>
       </c>
@@ -12225,6 +13009,12 @@
       <c r="C101">
         <v>4.5317259999999999</v>
       </c>
+      <c r="D101">
+        <v>1576</v>
+      </c>
+      <c r="E101">
+        <v>4.4609259999999997</v>
+      </c>
       <c r="F101">
         <v>2884</v>
       </c>
@@ -12255,6 +13045,12 @@
       <c r="O101">
         <v>4.6596900000000003</v>
       </c>
+      <c r="P101">
+        <v>3224</v>
+      </c>
+      <c r="Q101">
+        <v>4.7396289999999999</v>
+      </c>
       <c r="S101">
         <v>4.5693045368842302</v>
       </c>
@@ -12303,8 +13099,20 @@
       <c r="AK101">
         <v>4.3973482710680303</v>
       </c>
+      <c r="AM101">
+        <v>4.2248000067308897</v>
+      </c>
+      <c r="AN101">
+        <v>4.3227573291733501</v>
+      </c>
+      <c r="AO101">
+        <v>4.3945646837044698</v>
+      </c>
+      <c r="AP101">
+        <v>4.4062878580658902</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>6.0172544190309996</v>
       </c>
@@ -12314,6 +13122,12 @@
       <c r="C102">
         <v>6.0483219999999998</v>
       </c>
+      <c r="D102">
+        <v>1458</v>
+      </c>
+      <c r="E102">
+        <v>6.0614509999999999</v>
+      </c>
       <c r="F102">
         <v>2274</v>
       </c>
@@ -12344,6 +13158,12 @@
       <c r="O102">
         <v>5.9202469999999998</v>
       </c>
+      <c r="P102">
+        <v>1434</v>
+      </c>
+      <c r="Q102">
+        <v>6.0310810000000004</v>
+      </c>
       <c r="S102">
         <v>5.7418193115750498</v>
       </c>
@@ -12392,8 +13212,20 @@
       <c r="AK102">
         <v>5.46259818072493</v>
       </c>
+      <c r="AM102">
+        <v>5.4112149204782902</v>
+      </c>
+      <c r="AN102">
+        <v>5.4224816826555404</v>
+      </c>
+      <c r="AO102">
+        <v>5.4337625979363597</v>
+      </c>
+      <c r="AP102">
+        <v>5.4407491500143701</v>
+      </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4.3607996022459998</v>
       </c>
@@ -12403,6 +13235,12 @@
       <c r="C103">
         <v>3.6019040000000002</v>
       </c>
+      <c r="D103">
+        <v>1784</v>
+      </c>
+      <c r="E103">
+        <v>3.7310810000000001</v>
+      </c>
       <c r="F103">
         <v>2720</v>
       </c>
@@ -12433,6 +13271,12 @@
       <c r="O103">
         <v>4.3809149999999999</v>
       </c>
+      <c r="P103">
+        <v>2331</v>
+      </c>
+      <c r="Q103">
+        <v>4.3719580000000002</v>
+      </c>
       <c r="S103">
         <v>4.3645138134935797</v>
       </c>
@@ -12481,8 +13325,20 @@
       <c r="AK103">
         <v>4.0981967736831901</v>
       </c>
+      <c r="AM103">
+        <v>3.8634737332241902</v>
+      </c>
+      <c r="AN103">
+        <v>3.9613039530037999</v>
+      </c>
+      <c r="AO103">
+        <v>3.94762596422057</v>
+      </c>
+      <c r="AP103">
+        <v>3.85775710370583</v>
+      </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>5.1771384873889996</v>
       </c>
@@ -12492,6 +13348,12 @@
       <c r="C104">
         <v>4.29718</v>
       </c>
+      <c r="D104">
+        <v>1635</v>
+      </c>
+      <c r="E104">
+        <v>4.5745529999999999</v>
+      </c>
       <c r="F104">
         <v>2904</v>
       </c>
@@ -12522,6 +13384,12 @@
       <c r="O104">
         <v>5.2021620000000004</v>
       </c>
+      <c r="P104">
+        <v>1704</v>
+      </c>
+      <c r="Q104">
+        <v>5.2047090000000003</v>
+      </c>
       <c r="S104">
         <v>5.3081907122743699</v>
       </c>
@@ -12570,8 +13438,20 @@
       <c r="AK104">
         <v>5.07832065202326</v>
       </c>
+      <c r="AM104">
+        <v>4.8861233942223699</v>
+      </c>
+      <c r="AN104">
+        <v>4.8800070302719796</v>
+      </c>
+      <c r="AO104">
+        <v>4.9291739179872103</v>
+      </c>
+      <c r="AP104">
+        <v>4.8476973228981999</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2.1870717546699998</v>
       </c>
@@ -12581,6 +13461,12 @@
       <c r="C105">
         <v>2.0310670000000002</v>
       </c>
+      <c r="D105">
+        <v>1692</v>
+      </c>
+      <c r="E105">
+        <v>2.1133540000000002</v>
+      </c>
       <c r="F105">
         <v>2860</v>
       </c>
@@ -12611,6 +13497,12 @@
       <c r="O105">
         <v>2.1858420000000001</v>
       </c>
+      <c r="P105">
+        <v>2609</v>
+      </c>
+      <c r="Q105">
+        <v>2.2170719999999999</v>
+      </c>
       <c r="S105">
         <v>2.1625582450041501</v>
       </c>
@@ -12659,8 +13551,20 @@
       <c r="AK105">
         <v>2.0412731530537598</v>
       </c>
+      <c r="AM105">
+        <v>2.05535402832776</v>
+      </c>
+      <c r="AN105">
+        <v>2.0501955729840402</v>
+      </c>
+      <c r="AO105">
+        <v>2.09271498911485</v>
+      </c>
+      <c r="AP105">
+        <v>2.0519543432895899</v>
+      </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>AVERAGE(A6:A105)</f>
         <v>5.3234219860452265</v>
@@ -12673,6 +13577,14 @@
         <f>AVERAGE(C5:C105)</f>
         <v>4.5511808613861389</v>
       </c>
+      <c r="D106">
+        <f t="shared" ref="D106:E106" si="0">AVERAGE(D5:D105)</f>
+        <v>1533.8325247524751</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="0"/>
+        <v>4.770909267326731</v>
+      </c>
       <c r="F106">
         <f t="shared" ref="F106" si="1">AVERAGE(F6:F105)</f>
         <v>2528.11</v>
@@ -12713,20 +13625,28 @@
         <f>AVERAGE(O6:O105)</f>
         <v>5.1466043000000017</v>
       </c>
+      <c r="P106">
+        <f t="shared" ref="P106:Q106" si="4">AVERAGE(P6:P105)</f>
+        <v>3447.42</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="4"/>
+        <v>5.2742668299999993</v>
+      </c>
       <c r="S106">
-        <f t="shared" ref="S106" si="4">AVERAGE(S6:S105)</f>
+        <f t="shared" ref="S106" si="5">AVERAGE(S6:S105)</f>
         <v>5.1598077624125667</v>
       </c>
       <c r="T106">
-        <f t="shared" ref="T106" si="5">AVERAGE(T6:T105)</f>
+        <f t="shared" ref="T106" si="6">AVERAGE(T6:T105)</f>
         <v>5.1754142434397599</v>
       </c>
       <c r="U106">
-        <f t="shared" ref="U106" si="6">AVERAGE(U6:U105)</f>
+        <f t="shared" ref="U106" si="7">AVERAGE(U6:U105)</f>
         <v>4.9696862632611865</v>
       </c>
       <c r="V106">
-        <f t="shared" ref="V106" si="7">AVERAGE(V6:V105)</f>
+        <f t="shared" ref="V106" si="8">AVERAGE(V6:V105)</f>
         <v>4.9536360817113696</v>
       </c>
       <c r="X106">
@@ -12734,48 +13654,64 @@
         <v>5.0598929443044129</v>
       </c>
       <c r="Y106">
-        <f t="shared" ref="Y106:AA106" si="8">AVERAGE(Y6:Y105)</f>
+        <f t="shared" ref="Y106:AA106" si="9">AVERAGE(Y6:Y105)</f>
         <v>5.0739967330487143</v>
       </c>
       <c r="Z106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9505618221329293</v>
       </c>
       <c r="AA106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9440655995902612</v>
       </c>
       <c r="AC106">
-        <f t="shared" ref="AC106" si="9">AVERAGE(AC6:AC105)</f>
+        <f t="shared" ref="AC106" si="10">AVERAGE(AC6:AC105)</f>
         <v>4.9006925226261036</v>
       </c>
       <c r="AD106">
-        <f t="shared" ref="AD106" si="10">AVERAGE(AD6:AD105)</f>
+        <f t="shared" ref="AD106" si="11">AVERAGE(AD6:AD105)</f>
         <v>4.9224118560583259</v>
       </c>
       <c r="AE106">
-        <f t="shared" ref="AE106" si="11">AVERAGE(AE6:AE105)</f>
+        <f t="shared" ref="AE106" si="12">AVERAGE(AE6:AE105)</f>
         <v>4.8964816706570922</v>
       </c>
       <c r="AF106">
-        <f t="shared" ref="AF106" si="12">AVERAGE(AF6:AF105)</f>
+        <f t="shared" ref="AF106" si="13">AVERAGE(AF6:AF105)</f>
         <v>4.9346335586027621</v>
       </c>
       <c r="AH106">
-        <f t="shared" ref="AH106" si="13">AVERAGE(AH6:AH105)</f>
+        <f t="shared" ref="AH106" si="14">AVERAGE(AH6:AH105)</f>
         <v>4.8293494685541773</v>
       </c>
       <c r="AI106">
-        <f t="shared" ref="AI106" si="14">AVERAGE(AI6:AI105)</f>
+        <f t="shared" ref="AI106" si="15">AVERAGE(AI6:AI105)</f>
         <v>4.8473247666162749</v>
       </c>
       <c r="AJ106">
-        <f t="shared" ref="AJ106" si="15">AVERAGE(AJ6:AJ105)</f>
+        <f t="shared" ref="AJ106" si="16">AVERAGE(AJ6:AJ105)</f>
         <v>4.8149774847872235</v>
       </c>
       <c r="AK106">
-        <f t="shared" ref="AK106" si="16">AVERAGE(AK6:AK105)</f>
+        <f t="shared" ref="AK106" si="17">AVERAGE(AK6:AK105)</f>
         <v>4.8781144877630567</v>
+      </c>
+      <c r="AM106">
+        <f>AVERAGE(AM6:AM105)</f>
+        <v>4.6982277131181736</v>
+      </c>
+      <c r="AN106">
+        <f t="shared" ref="AN106:AP106" si="18">AVERAGE(AN6:AN105)</f>
+        <v>4.7153311712571586</v>
+      </c>
+      <c r="AO106">
+        <f t="shared" si="18"/>
+        <v>4.706335548631154</v>
+      </c>
+      <c r="AP106">
+        <f t="shared" si="18"/>
+        <v>4.7232976929350974</v>
       </c>
     </row>
   </sheetData>
@@ -12787,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C73F76F-56D5-4071-92E4-345BBCAB4205}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12828,6 +13764,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5:B5">Лист1!B106:C106</f>
+        <v>998.43663366336636</v>
+      </c>
+      <c r="B5">
+        <v>4.5511808613861389</v>
+      </c>
       <c r="C5">
         <f>Лист1!J106</f>
         <v>587.99108910891084</v>
@@ -12837,33 +13780,30 @@
         <v>4.8480498118811903</v>
       </c>
       <c r="E5">
-        <f>Лист1!AH4</f>
-        <v>1400</v>
-      </c>
-      <c r="F5">
-        <f>Лист1!AH106</f>
-        <v>4.8293494685541773</v>
+        <f>Лист1!AM4</f>
+        <v>1000</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5:I5">Лист1!AM106:AP106</f>
+        <v>4.6982277131181736</v>
       </c>
       <c r="G5">
-        <f>Лист1!AI106</f>
-        <v>4.8473247666162749</v>
+        <v>4.7153311712571586</v>
       </c>
       <c r="H5">
-        <f>Лист1!AJ106</f>
-        <v>4.8149774847872235</v>
+        <v>4.706335548631154</v>
       </c>
       <c r="I5">
-        <f>Лист1!AK106</f>
-        <v>4.8781144877630567</v>
+        <v>4.7232976929350974</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:B6">Лист1!B106:C106</f>
-        <v>998.43663366336636</v>
+        <f t="array" ref="A6:B6">Лист1!D106:E106</f>
+        <v>1533.8325247524751</v>
       </c>
       <c r="B6">
-        <v>4.5511808613861389</v>
+        <v>4.770909267326731</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6:D6">Лист1!L106:M106</f>
@@ -12873,24 +13813,24 @@
         <v>5.0152842900000003</v>
       </c>
       <c r="E6">
-        <f>Лист1!AC4</f>
-        <v>1700</v>
+        <f>Лист1!AH4</f>
+        <v>1400</v>
       </c>
       <c r="F6">
-        <f>Лист1!AC106</f>
-        <v>4.9006925226261036</v>
+        <f>Лист1!AH106</f>
+        <v>4.8293494685541773</v>
       </c>
       <c r="G6">
-        <f>Лист1!AD106</f>
-        <v>4.9224118560583259</v>
+        <f>Лист1!AI106</f>
+        <v>4.8473247666162749</v>
       </c>
       <c r="H6">
-        <f>Лист1!AE106</f>
-        <v>4.8964816706570922</v>
+        <f>Лист1!AJ106</f>
+        <v>4.8149774847872235</v>
       </c>
       <c r="I6">
-        <f>Лист1!AF106</f>
-        <v>4.9346335586027621</v>
+        <f>Лист1!AK106</f>
+        <v>4.8781144877630567</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -12909,20 +13849,24 @@
         <v>5.1466043000000017</v>
       </c>
       <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="1" cm="1">
-        <f t="array" ref="F7:I7">Лист1!X106:AA106</f>
-        <v>5.0598929443044129</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5.0739967330487143</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.9505618221329293</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4.9440655995902612</v>
+        <f>Лист1!AC4</f>
+        <v>1700</v>
+      </c>
+      <c r="F7">
+        <f>Лист1!AC106</f>
+        <v>4.9006925226261036</v>
+      </c>
+      <c r="G7">
+        <f>Лист1!AD106</f>
+        <v>4.9224118560583259</v>
+      </c>
+      <c r="H7">
+        <f>Лист1!AE106</f>
+        <v>4.8964816706570922</v>
+      </c>
+      <c r="I7">
+        <f>Лист1!AF106</f>
+        <v>4.9346335586027621</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -12933,21 +13877,46 @@
       <c r="B8">
         <v>5.2662371999999982</v>
       </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8:D8">Лист1!P106:Q106</f>
+        <v>3447.42</v>
+      </c>
+      <c r="D8">
+        <v>5.2742668299999993</v>
+      </c>
       <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8:I8">Лист1!X106:AA106</f>
+        <v>5.0598929443044129</v>
+      </c>
+      <c r="G8">
+        <v>5.0739967330487143</v>
+      </c>
+      <c r="H8">
+        <v>4.9505618221329293</v>
+      </c>
+      <c r="I8">
+        <v>4.9440655995902612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9">
         <f>Лист1!S4</f>
         <v>4700</v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8:I8">Лист1!S106:V106</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9:I9">Лист1!S106:V106</f>
         <v>5.1598077624125667</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>5.1754142434397599</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>4.9696862632611865</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>4.9536360817113696</v>
       </c>
     </row>

--- a/2022/LION/GKLS.xlsx
+++ b/2022/LION/GKLS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\GlobOptPapers\2022\LION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF24244-567C-4B07-8132-2EC5CC4E8774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD477533-D07F-4C11-BD6D-0AEF7AB6C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81E0D302-7E81-40ED-99EB-5ADBB7ADC8AE}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>HVP</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>GKLS N=3 s=2 (лучше выше и левее)</t>
+  </si>
+  <si>
+    <t>HV(лучше больше)</t>
   </si>
 </sst>
 </file>
@@ -894,6 +897,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iter.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -957,6 +1001,47 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HV(лучше больше)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1719,8 +1804,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13724,7 +13809,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13734,6 +13819,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>

--- a/2022/LION/GKLS.xlsx
+++ b/2022/LION/GKLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\GlobOptPapers\2022\LION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD477533-D07F-4C11-BD6D-0AEF7AB6C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC66B9DE-E7D8-4068-952A-89336B0B4E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81E0D302-7E81-40ED-99EB-5ADBB7ADC8AE}"/>
   </bookViews>
@@ -734,10 +734,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист2!$C$5:$C$7</c:f>
+              <c:f>Лист2!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>587.99108910891084</c:v>
                 </c:pt>
@@ -747,15 +747,18 @@
                 <c:pt idx="2">
                   <c:v>1377.83</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3447.42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$D$5:$D$7</c:f>
+              <c:f>Лист2!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.8480498118811903</c:v>
                 </c:pt>
@@ -764,6 +767,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.1466043000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2742668299999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13809,7 +13815,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
